--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\User\Documents\University\2019\Repositories\edgesum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D46B2ABF-5A50-4A04-B6C0-4CD249289EC3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFE2896-E163-45FB-B488-35E754D342E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{C9E8864D-5F17-466A-B1FF-8AA41EB8F054}"/>
   </bookViews>
@@ -31,14 +31,11 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="102" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="64">
   <si>
     <t>Name</t>
   </si>
   <si>
-    <t>Size (MB)</t>
-  </si>
-  <si>
     <t>Length (s)</t>
   </si>
   <si>
@@ -84,18 +81,9 @@
     <t>Test game footage, 1920x1080 60FPS</t>
   </si>
   <si>
-    <t>All</t>
-  </si>
-  <si>
     <t>Summarisation time (s)</t>
   </si>
   <si>
-    <t>Summarised size (MB)</t>
-  </si>
-  <si>
-    <t>NA</t>
-  </si>
-  <si>
     <t>Total</t>
   </si>
   <si>
@@ -126,9 +114,6 @@
     <t>1849s (30:49)</t>
   </si>
   <si>
-    <t>Actual total time:</t>
-  </si>
-  <si>
     <t>Actual total time</t>
   </si>
   <si>
@@ -139,6 +124,105 @@
   </si>
   <si>
     <t>1552s (25:52)</t>
+  </si>
+  <si>
+    <t>Summarised length (s)</t>
+  </si>
+  <si>
+    <t>n/a</t>
+  </si>
+  <si>
+    <t>all</t>
+  </si>
+  <si>
+    <t>Dashcam footage, 1920x1080 60FPS</t>
+  </si>
+  <si>
+    <t>20191028_171616_NF</t>
+  </si>
+  <si>
+    <t>20191028_171716_NF</t>
+  </si>
+  <si>
+    <t>20191028_171746_EF</t>
+  </si>
+  <si>
+    <t>20191028_171846_NF</t>
+  </si>
+  <si>
+    <t>20191028_180605_NF</t>
+  </si>
+  <si>
+    <t>20191028_180615_EF</t>
+  </si>
+  <si>
+    <t>20191028_180715_NF</t>
+  </si>
+  <si>
+    <t>20191028_180815_NF</t>
+  </si>
+  <si>
+    <t>20191028_180915_NF</t>
+  </si>
+  <si>
+    <t>20191028_181015_NF</t>
+  </si>
+  <si>
+    <t>20191028_181115_NF</t>
+  </si>
+  <si>
+    <t>20191028_181159_PF</t>
+  </si>
+  <si>
+    <t>20191028_181359_PF</t>
+  </si>
+  <si>
+    <t>20191030_161051_NF</t>
+  </si>
+  <si>
+    <t>20191030_165129_NF</t>
+  </si>
+  <si>
+    <t>20191030_165229_NF</t>
+  </si>
+  <si>
+    <t>20191030_165329_NF</t>
+  </si>
+  <si>
+    <t>20191030_165429_NF</t>
+  </si>
+  <si>
+    <t>20191030_165530_NF</t>
+  </si>
+  <si>
+    <t>20191030_212910_NF</t>
+  </si>
+  <si>
+    <t>20191030_213010_NF</t>
+  </si>
+  <si>
+    <t>20191030_220901_NF</t>
+  </si>
+  <si>
+    <t>20191030_221001_NF</t>
+  </si>
+  <si>
+    <t>20191030_221101_NF</t>
+  </si>
+  <si>
+    <t>20191030_221201_NF</t>
+  </si>
+  <si>
+    <t>20191030_221302_NF</t>
+  </si>
+  <si>
+    <t>Size (KB)</t>
+  </si>
+  <si>
+    <t>Summarised size (KB)</t>
+  </si>
+  <si>
+    <t>829.817s (13:49.817)</t>
   </si>
 </sst>
 </file>
@@ -497,250 +581,290 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04285B5-A4B2-43D6-9C20-CE6D828CF8A2}">
-  <dimension ref="A2:E81"/>
+  <dimension ref="A2:F140"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G15" sqref="G15"/>
+    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
+      <selection activeCell="D128" sqref="D128:D129"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="1" width="15.9296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="20.06640625" customWidth="1"/>
     <col min="2" max="2" width="19.265625" customWidth="1"/>
     <col min="3" max="3" width="18.265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19.1328125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.3984375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.265625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.3984375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A2" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.45">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A3" t="s">
         <v>0</v>
       </c>
       <c r="B3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C3" t="s">
+        <v>62</v>
+      </c>
+      <c r="D3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" t="s">
-        <v>19</v>
-      </c>
-      <c r="D3" t="s">
+      <c r="E3" t="s">
+        <v>31</v>
+      </c>
+      <c r="F3" t="s">
         <v>2</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.45">
-      <c r="A4" t="s">
-        <v>4</v>
-      </c>
       <c r="B4">
-        <v>4.9800000000000004</v>
+        <v>5104</v>
       </c>
       <c r="C4">
-        <v>1.87</v>
+        <v>1916</v>
       </c>
       <c r="D4">
         <v>34</v>
       </c>
       <c r="E4">
+        <v>14</v>
+      </c>
+      <c r="F4">
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A5" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B5">
-        <v>4.1399999999999997</v>
+        <v>4248</v>
       </c>
       <c r="C5" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D5">
         <v>46</v>
       </c>
-      <c r="E5">
+      <c r="E5" t="s">
+        <v>32</v>
+      </c>
+      <c r="F5">
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A6" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6">
-        <v>70.099999999999994</v>
+        <v>71856</v>
       </c>
       <c r="C6">
-        <v>70.099999999999994</v>
+        <v>71856</v>
       </c>
       <c r="D6">
         <v>59</v>
       </c>
-      <c r="E6" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E6">
+        <v>59</v>
+      </c>
+      <c r="F6" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B7">
-        <v>17.8</v>
+        <v>18312</v>
       </c>
       <c r="C7">
-        <v>8.52</v>
+        <v>8728</v>
       </c>
       <c r="D7">
         <v>53</v>
       </c>
       <c r="E7">
+        <v>13</v>
+      </c>
+      <c r="F7">
         <v>2</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A8" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B8">
-        <v>8.64</v>
+        <v>8856</v>
       </c>
       <c r="C8">
-        <v>3.9</v>
+        <v>3996</v>
       </c>
       <c r="D8">
         <v>30</v>
       </c>
       <c r="E8">
+        <v>9</v>
+      </c>
+      <c r="F8">
         <v>2</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A9" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B9">
-        <v>12.3</v>
+        <v>12616</v>
       </c>
       <c r="C9">
-        <v>10.1</v>
+        <v>10376</v>
       </c>
       <c r="D9">
         <v>37</v>
       </c>
       <c r="E9">
+        <v>12</v>
+      </c>
+      <c r="F9">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A10" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B10">
-        <v>32.4</v>
+        <v>33220</v>
       </c>
       <c r="C10">
-        <v>17.100000000000001</v>
+        <v>17528</v>
       </c>
       <c r="D10">
         <v>55</v>
       </c>
       <c r="E10">
+        <v>32</v>
+      </c>
+      <c r="F10">
         <v>4</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A11" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B11">
-        <v>45.2</v>
+        <v>46332</v>
       </c>
       <c r="C11">
-        <v>23.3</v>
+        <v>23924</v>
       </c>
       <c r="D11">
         <v>83</v>
       </c>
       <c r="E11">
+        <v>43</v>
+      </c>
+      <c r="F11">
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A12" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B12">
-        <v>15.2</v>
+        <v>15600</v>
       </c>
       <c r="C12">
-        <v>10.7</v>
+        <v>11040</v>
       </c>
       <c r="D12">
         <v>59</v>
       </c>
       <c r="E12">
+        <v>14</v>
+      </c>
+      <c r="F12">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A13" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B13">
-        <v>14.9</v>
+        <v>15272</v>
       </c>
       <c r="C13">
-        <v>10.5</v>
+        <v>10840</v>
       </c>
       <c r="D13">
         <v>61</v>
       </c>
       <c r="E13">
+        <v>14</v>
+      </c>
+      <c r="F13">
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A14" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14">
-        <v>15</v>
+        <v>15444</v>
       </c>
       <c r="C14">
-        <v>10.7</v>
+        <v>11028</v>
       </c>
       <c r="D14">
         <v>62</v>
       </c>
       <c r="E14">
+        <v>14</v>
+      </c>
+      <c r="F14">
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A15" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B15">
-        <v>39.1</v>
+        <v>40128</v>
       </c>
       <c r="C15">
-        <v>37.9</v>
+        <v>38828</v>
       </c>
       <c r="D15">
         <v>62</v>
       </c>
       <c r="E15">
+        <v>45</v>
+      </c>
+      <c r="F15">
         <v>1</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -748,12 +872,12 @@
         <v>0</v>
       </c>
       <c r="B18" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A19" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B19">
         <v>193</v>
@@ -761,7 +885,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A20" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B20">
         <v>14</v>
@@ -769,7 +893,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A21" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B21">
         <v>116</v>
@@ -777,7 +901,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A22" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B22">
         <v>471</v>
@@ -785,7 +909,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A23" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B23">
         <v>47</v>
@@ -793,7 +917,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A24" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B24">
         <v>57</v>
@@ -801,7 +925,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A25" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B25">
         <v>847</v>
@@ -809,7 +933,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A26" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B26">
         <v>1212</v>
@@ -817,7 +941,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A27" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27">
         <v>91</v>
@@ -825,7 +949,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A28" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B28">
         <v>91</v>
@@ -833,7 +957,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A29" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B29">
         <v>93</v>
@@ -841,7 +965,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A30" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B30">
         <v>109</v>
@@ -849,7 +973,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B31">
         <f>SUM(B19:B30)</f>
@@ -858,20 +982,20 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="B32" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
@@ -879,18 +1003,18 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C36" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D36" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B37">
         <v>1.4</v>
@@ -904,7 +1028,7 @@
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A38" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B38">
         <v>13.7</v>
@@ -918,7 +1042,7 @@
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A39" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B39">
         <v>2.2000000000000002</v>
@@ -932,7 +1056,7 @@
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A40" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B40">
         <v>6.8</v>
@@ -946,7 +1070,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A41" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B41">
         <v>3.5</v>
@@ -960,7 +1084,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A42" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B42">
         <v>3</v>
@@ -974,7 +1098,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A43" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B43">
         <f>SUM(B37:B42)</f>
@@ -991,7 +1115,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
@@ -999,24 +1123,24 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C45" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D45" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A46" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B46">
         <v>0.8</v>
       </c>
       <c r="C46" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D46">
         <v>69</v>
@@ -1024,7 +1148,7 @@
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A47" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B47">
         <v>3.8</v>
@@ -1038,7 +1162,7 @@
     </row>
     <row r="48" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A48" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B48">
         <v>2.5</v>
@@ -1052,7 +1176,7 @@
     </row>
     <row r="49" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A49" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B49">
         <v>11.2</v>
@@ -1066,7 +1190,7 @@
     </row>
     <row r="50" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A50" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B50">
         <v>4.3</v>
@@ -1080,7 +1204,7 @@
     </row>
     <row r="51" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A51" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B51">
         <v>11.6</v>
@@ -1094,7 +1218,7 @@
     </row>
     <row r="52" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A52" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B52">
         <f>SUM(B46:B51)</f>
@@ -1111,7 +1235,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B53">
         <f>SUM(B43,B52)</f>
@@ -1128,20 +1252,20 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B54" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
@@ -1149,18 +1273,18 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C58" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D58" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="59" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A59" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B59">
         <v>1.8</v>
@@ -1174,7 +1298,7 @@
     </row>
     <row r="60" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A60" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B60">
         <v>4.2</v>
@@ -1188,7 +1312,7 @@
     </row>
     <row r="61" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A61" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B61">
         <v>5.5</v>
@@ -1202,7 +1326,7 @@
     </row>
     <row r="62" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A62" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B62">
         <v>3.7</v>
@@ -1216,7 +1340,7 @@
     </row>
     <row r="63" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A63" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B63">
         <f>SUM(B59:B62)</f>
@@ -1233,7 +1357,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
@@ -1241,24 +1365,24 @@
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C65" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D65" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="66" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A66" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B66">
         <v>0.8</v>
       </c>
       <c r="C66" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="D66">
         <v>36</v>
@@ -1266,7 +1390,7 @@
     </row>
     <row r="67" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A67" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B67">
         <v>2.1</v>
@@ -1280,7 +1404,7 @@
     </row>
     <row r="68" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A68" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B68">
         <v>14.9</v>
@@ -1294,7 +1418,7 @@
     </row>
     <row r="69" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A69" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B69">
         <v>3.5</v>
@@ -1308,7 +1432,7 @@
     </row>
     <row r="70" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A70" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B70">
         <f>SUM(B66:B69)</f>
@@ -1325,7 +1449,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>26</v>
+        <v>22</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
@@ -1333,18 +1457,18 @@
         <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="C72" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D72" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
     </row>
     <row r="73" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A73" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B73">
         <v>18.8</v>
@@ -1358,7 +1482,7 @@
     </row>
     <row r="74" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A74" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B74">
         <v>3.8</v>
@@ -1372,7 +1496,7 @@
     </row>
     <row r="75" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A75" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B75">
         <v>4.2</v>
@@ -1386,7 +1510,7 @@
     </row>
     <row r="76" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A76" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B76">
         <v>12.1</v>
@@ -1400,7 +1524,7 @@
     </row>
     <row r="77" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A77" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
       <c r="B77">
         <f>SUM(B73:B76)</f>
@@ -1417,7 +1541,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
       <c r="B78">
         <f>SUM(B63,B70,B77)</f>
@@ -1434,17 +1558,800 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B79" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A80" s="1"/>
     </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.45">
+    <row r="81" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A81" s="1"/>
+    </row>
+    <row r="82" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A82" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="83" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A83" t="s">
+        <v>0</v>
+      </c>
+      <c r="B83" t="s">
+        <v>61</v>
+      </c>
+      <c r="C83" t="s">
+        <v>62</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>31</v>
+      </c>
+      <c r="F83" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="84" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A84" t="s">
+        <v>35</v>
+      </c>
+      <c r="B84">
+        <v>98500</v>
+      </c>
+      <c r="C84">
+        <v>98500</v>
+      </c>
+      <c r="D84">
+        <v>60</v>
+      </c>
+      <c r="E84">
+        <v>60</v>
+      </c>
+      <c r="F84" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A85" t="s">
+        <v>36</v>
+      </c>
+      <c r="B85">
+        <v>57180</v>
+      </c>
+      <c r="C85">
+        <v>57180</v>
+      </c>
+      <c r="D85">
+        <v>35</v>
+      </c>
+      <c r="E85">
+        <v>35</v>
+      </c>
+      <c r="F85" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="86" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A86" t="s">
+        <v>37</v>
+      </c>
+      <c r="B86">
+        <v>98500</v>
+      </c>
+      <c r="C86">
+        <v>98500</v>
+      </c>
+      <c r="D86">
+        <v>60</v>
+      </c>
+      <c r="E86">
+        <v>60</v>
+      </c>
+      <c r="F86" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="87" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A87" t="s">
+        <v>38</v>
+      </c>
+      <c r="B87">
+        <v>98500</v>
+      </c>
+      <c r="C87">
+        <v>98500</v>
+      </c>
+      <c r="D87">
+        <v>60</v>
+      </c>
+      <c r="E87">
+        <v>60</v>
+      </c>
+      <c r="F87" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="88" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A88" t="s">
+        <v>39</v>
+      </c>
+      <c r="B88">
+        <v>24704</v>
+      </c>
+      <c r="C88">
+        <v>24704</v>
+      </c>
+      <c r="D88">
+        <v>14</v>
+      </c>
+      <c r="E88">
+        <v>14</v>
+      </c>
+      <c r="F88" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="89" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A89" t="s">
+        <v>40</v>
+      </c>
+      <c r="B89">
+        <v>98500</v>
+      </c>
+      <c r="C89">
+        <v>89568</v>
+      </c>
+      <c r="D89">
+        <v>60</v>
+      </c>
+      <c r="E89">
+        <v>51</v>
+      </c>
+      <c r="F89">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="90" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A90" t="s">
+        <v>41</v>
+      </c>
+      <c r="B90">
+        <v>98500</v>
+      </c>
+      <c r="C90">
+        <v>8872</v>
+      </c>
+      <c r="D90">
+        <v>60</v>
+      </c>
+      <c r="E90">
+        <v>11</v>
+      </c>
+      <c r="F90">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A91" t="s">
+        <v>42</v>
+      </c>
+      <c r="B91">
+        <v>98500</v>
+      </c>
+      <c r="C91">
+        <v>3064</v>
+      </c>
+      <c r="D91">
+        <v>60</v>
+      </c>
+      <c r="E91">
+        <v>2</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A92" t="s">
+        <v>43</v>
+      </c>
+      <c r="B92">
+        <v>98500</v>
+      </c>
+      <c r="C92">
+        <v>3068</v>
+      </c>
+      <c r="D92">
+        <v>60</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A93" t="s">
+        <v>44</v>
+      </c>
+      <c r="B93">
+        <v>98500</v>
+      </c>
+      <c r="C93" t="s">
+        <v>32</v>
+      </c>
+      <c r="D93">
+        <v>60</v>
+      </c>
+      <c r="E93" t="s">
+        <v>32</v>
+      </c>
+      <c r="F93">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="94" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A94" t="s">
+        <v>45</v>
+      </c>
+      <c r="B94">
+        <v>78544</v>
+      </c>
+      <c r="C94" t="s">
+        <v>32</v>
+      </c>
+      <c r="D94">
+        <v>48</v>
+      </c>
+      <c r="E94" t="s">
+        <v>32</v>
+      </c>
+      <c r="F94">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A95" t="s">
+        <v>46</v>
+      </c>
+      <c r="B95">
+        <v>98500</v>
+      </c>
+      <c r="C95" t="s">
+        <v>32</v>
+      </c>
+      <c r="D95">
+        <v>60</v>
+      </c>
+      <c r="E95" t="s">
+        <v>32</v>
+      </c>
+      <c r="F95">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="96" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A96" t="s">
+        <v>47</v>
+      </c>
+      <c r="B96">
+        <v>98500</v>
+      </c>
+      <c r="C96" t="s">
+        <v>32</v>
+      </c>
+      <c r="D96">
+        <v>60</v>
+      </c>
+      <c r="E96" t="s">
+        <v>32</v>
+      </c>
+      <c r="F96">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A97" t="s">
+        <v>48</v>
+      </c>
+      <c r="B97">
+        <v>98500</v>
+      </c>
+      <c r="C97">
+        <v>58904</v>
+      </c>
+      <c r="D97">
+        <v>60</v>
+      </c>
+      <c r="E97">
+        <v>49</v>
+      </c>
+      <c r="F97">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="98" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A98" t="s">
+        <v>49</v>
+      </c>
+      <c r="B98">
+        <v>98500</v>
+      </c>
+      <c r="C98">
+        <v>13648</v>
+      </c>
+      <c r="D98">
+        <v>60</v>
+      </c>
+      <c r="E98">
+        <v>21</v>
+      </c>
+      <c r="F98">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="99" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A99" t="s">
+        <v>50</v>
+      </c>
+      <c r="B99">
+        <v>98500</v>
+      </c>
+      <c r="C99" t="s">
+        <v>32</v>
+      </c>
+      <c r="D99">
+        <v>60</v>
+      </c>
+      <c r="E99" t="s">
+        <v>32</v>
+      </c>
+      <c r="F99">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A100" t="s">
+        <v>51</v>
+      </c>
+      <c r="B100">
+        <v>98500</v>
+      </c>
+      <c r="C100" t="s">
+        <v>32</v>
+      </c>
+      <c r="D100">
+        <v>60</v>
+      </c>
+      <c r="E100" t="s">
+        <v>32</v>
+      </c>
+      <c r="F100">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A101" t="s">
+        <v>52</v>
+      </c>
+      <c r="B101">
+        <v>98500</v>
+      </c>
+      <c r="C101">
+        <v>6540</v>
+      </c>
+      <c r="D101">
+        <v>60</v>
+      </c>
+      <c r="E101">
+        <v>4</v>
+      </c>
+      <c r="F101">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="102" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A102" t="s">
+        <v>53</v>
+      </c>
+      <c r="B102">
+        <v>31328</v>
+      </c>
+      <c r="C102" t="s">
+        <v>32</v>
+      </c>
+      <c r="D102">
+        <v>19</v>
+      </c>
+      <c r="E102" t="s">
+        <v>32</v>
+      </c>
+      <c r="F102">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A103" t="s">
+        <v>54</v>
+      </c>
+      <c r="B103">
+        <v>98500</v>
+      </c>
+      <c r="C103" t="s">
+        <v>32</v>
+      </c>
+      <c r="D103">
+        <v>60</v>
+      </c>
+      <c r="E103" t="s">
+        <v>32</v>
+      </c>
+      <c r="F103">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A104" t="s">
+        <v>55</v>
+      </c>
+      <c r="B104">
+        <v>98500</v>
+      </c>
+      <c r="C104" t="s">
+        <v>32</v>
+      </c>
+      <c r="D104">
+        <v>60</v>
+      </c>
+      <c r="E104" t="s">
+        <v>32</v>
+      </c>
+      <c r="F104">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A105" t="s">
+        <v>56</v>
+      </c>
+      <c r="B105">
+        <v>98500</v>
+      </c>
+      <c r="C105">
+        <v>55400</v>
+      </c>
+      <c r="D105">
+        <v>60</v>
+      </c>
+      <c r="E105">
+        <v>36</v>
+      </c>
+      <c r="F105">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="106" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A106" t="s">
+        <v>57</v>
+      </c>
+      <c r="B106">
+        <v>98500</v>
+      </c>
+      <c r="C106">
+        <v>23396</v>
+      </c>
+      <c r="D106">
+        <v>60</v>
+      </c>
+      <c r="E106">
+        <v>28</v>
+      </c>
+      <c r="F106">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="107" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A107" t="s">
+        <v>58</v>
+      </c>
+      <c r="B107">
+        <v>98500</v>
+      </c>
+      <c r="C107" t="s">
+        <v>32</v>
+      </c>
+      <c r="D107">
+        <v>60</v>
+      </c>
+      <c r="E107" t="s">
+        <v>32</v>
+      </c>
+      <c r="F107">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A108" t="s">
+        <v>59</v>
+      </c>
+      <c r="B108">
+        <v>98500</v>
+      </c>
+      <c r="C108" t="s">
+        <v>32</v>
+      </c>
+      <c r="D108">
+        <v>60</v>
+      </c>
+      <c r="E108" t="s">
+        <v>32</v>
+      </c>
+      <c r="F108">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A109" t="s">
+        <v>60</v>
+      </c>
+      <c r="B109">
+        <v>98500</v>
+      </c>
+      <c r="C109">
+        <v>24308</v>
+      </c>
+      <c r="D109">
+        <v>60</v>
+      </c>
+      <c r="E109">
+        <v>30</v>
+      </c>
+      <c r="F109">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A111" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="112" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A112" t="s">
+        <v>0</v>
+      </c>
+      <c r="B112" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A113" t="s">
+        <v>35</v>
+      </c>
+      <c r="B113">
+        <v>26.439</v>
+      </c>
+    </row>
+    <row r="114" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A114" t="s">
+        <v>36</v>
+      </c>
+      <c r="B114">
+        <v>15.901</v>
+      </c>
+    </row>
+    <row r="115" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A115" t="s">
+        <v>37</v>
+      </c>
+      <c r="B115">
+        <v>26.736999999999998</v>
+      </c>
+    </row>
+    <row r="116" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A116" t="s">
+        <v>38</v>
+      </c>
+      <c r="B116">
+        <v>27.82</v>
+      </c>
+    </row>
+    <row r="117" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A117" t="s">
+        <v>39</v>
+      </c>
+      <c r="B117">
+        <v>7.17</v>
+      </c>
+    </row>
+    <row r="118" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A118" t="s">
+        <v>40</v>
+      </c>
+      <c r="B118">
+        <v>30.199000000000002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A119" t="s">
+        <v>41</v>
+      </c>
+      <c r="B119">
+        <v>36.860999999999997</v>
+      </c>
+    </row>
+    <row r="120" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A120" t="s">
+        <v>42</v>
+      </c>
+      <c r="B120">
+        <v>36.716000000000001</v>
+      </c>
+    </row>
+    <row r="121" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A121" t="s">
+        <v>43</v>
+      </c>
+      <c r="B121">
+        <v>36.561999999999998</v>
+      </c>
+    </row>
+    <row r="122" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A122" t="s">
+        <v>44</v>
+      </c>
+      <c r="B122">
+        <v>35.945999999999998</v>
+      </c>
+    </row>
+    <row r="123" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A123" t="s">
+        <v>45</v>
+      </c>
+      <c r="B123">
+        <v>26.963999999999999</v>
+      </c>
+    </row>
+    <row r="124" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A124" t="s">
+        <v>46</v>
+      </c>
+      <c r="B124">
+        <v>36.438000000000002</v>
+      </c>
+    </row>
+    <row r="125" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A125" t="s">
+        <v>47</v>
+      </c>
+      <c r="B125">
+        <v>36.392000000000003</v>
+      </c>
+    </row>
+    <row r="126" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A126" t="s">
+        <v>48</v>
+      </c>
+      <c r="B126">
+        <v>35.395000000000003</v>
+      </c>
+    </row>
+    <row r="127" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A127" t="s">
+        <v>49</v>
+      </c>
+      <c r="B127">
+        <v>36.844999999999999</v>
+      </c>
+    </row>
+    <row r="128" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A128" t="s">
+        <v>50</v>
+      </c>
+      <c r="B128">
+        <v>36.81</v>
+      </c>
+    </row>
+    <row r="129" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A129" t="s">
+        <v>51</v>
+      </c>
+      <c r="B129">
+        <v>36.780999999999999</v>
+      </c>
+    </row>
+    <row r="130" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A130" t="s">
+        <v>52</v>
+      </c>
+      <c r="B130">
+        <v>35.555999999999997</v>
+      </c>
+    </row>
+    <row r="131" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A131" t="s">
+        <v>53</v>
+      </c>
+      <c r="B131">
+        <v>11.531000000000001</v>
+      </c>
+    </row>
+    <row r="132" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A132" t="s">
+        <v>54</v>
+      </c>
+      <c r="B132">
+        <v>37.35</v>
+      </c>
+    </row>
+    <row r="133" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A133" t="s">
+        <v>55</v>
+      </c>
+      <c r="B133">
+        <v>37.948999999999998</v>
+      </c>
+    </row>
+    <row r="134" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A134" t="s">
+        <v>56</v>
+      </c>
+      <c r="B134">
+        <v>35.667000000000002</v>
+      </c>
+    </row>
+    <row r="135" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A135" t="s">
+        <v>57</v>
+      </c>
+      <c r="B135">
+        <v>35.738999999999997</v>
+      </c>
+    </row>
+    <row r="136" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A136" t="s">
+        <v>58</v>
+      </c>
+      <c r="B136">
+        <v>37.073999999999998</v>
+      </c>
+    </row>
+    <row r="137" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A137" t="s">
+        <v>59</v>
+      </c>
+      <c r="B137">
+        <v>36.835000000000001</v>
+      </c>
+    </row>
+    <row r="138" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A138" t="s">
+        <v>60</v>
+      </c>
+      <c r="B138">
+        <v>36.14</v>
+      </c>
+    </row>
+    <row r="139" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A139" t="s">
+        <v>17</v>
+      </c>
+      <c r="B139">
+        <f>SUM(B113:B138)</f>
+        <v>829.81700000000001</v>
+      </c>
+    </row>
+    <row r="140" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A140" t="s">
+        <v>27</v>
+      </c>
+      <c r="B140" t="s">
+        <v>63</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\User\Documents\University\2019\Repositories\edgesum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6AFE2896-E163-45FB-B488-35E754D342E8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B458C791-96FC-4C5C-9BD8-A10DE21D3694}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{C9E8864D-5F17-466A-B1FF-8AA41EB8F054}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="293" uniqueCount="67">
   <si>
     <t>Name</t>
   </si>
@@ -87,9 +87,6 @@
     <t>Total</t>
   </si>
   <si>
-    <t>Offline (s8)</t>
-  </si>
-  <si>
     <t>Three nodes (n5x-34d8 master)</t>
   </si>
   <si>
@@ -135,9 +132,6 @@
     <t>all</t>
   </si>
   <si>
-    <t>Dashcam footage, 1920x1080 60FPS</t>
-  </si>
-  <si>
     <t>20191028_171616_NF</t>
   </si>
   <si>
@@ -222,13 +216,31 @@
     <t>Summarised size (KB)</t>
   </si>
   <si>
-    <t>829.817s (13:49.817)</t>
+    <t>1890.938s (31:30.938)</t>
+  </si>
+  <si>
+    <t>Dashcam footage, 1920x1080 60FPS, 38 noise tolerance</t>
+  </si>
+  <si>
+    <t>2815.272s (46:55.272)</t>
+  </si>
+  <si>
+    <t>Offline - s8</t>
+  </si>
+  <si>
+    <t>Offline - n5</t>
+  </si>
+  <si>
+    <t>6591.254s (1:49:51.254)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="0.000"/>
+  </numFmts>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -264,9 +276,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="47" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -581,10 +594,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04285B5-A4B2-43D6-9C20-CE6D828CF8A2}">
-  <dimension ref="A2:F140"/>
+  <dimension ref="A2:F210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A115" workbookViewId="0">
-      <selection activeCell="D128" sqref="D128:D129"/>
+    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C168" sqref="C168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -607,16 +620,16 @@
         <v>0</v>
       </c>
       <c r="B3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C3" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D3" t="s">
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F3" t="s">
         <v>2</v>
@@ -630,13 +643,13 @@
         <v>5104</v>
       </c>
       <c r="C4">
-        <v>1916</v>
+        <v>1724</v>
       </c>
       <c r="D4">
         <v>34</v>
       </c>
       <c r="E4">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -650,13 +663,13 @@
         <v>4248</v>
       </c>
       <c r="C5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D5">
         <v>46</v>
       </c>
       <c r="E5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F5">
         <v>0</v>
@@ -679,7 +692,7 @@
         <v>59</v>
       </c>
       <c r="F6" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.45">
@@ -710,16 +723,16 @@
         <v>8856</v>
       </c>
       <c r="C8">
-        <v>3996</v>
+        <v>6932</v>
       </c>
       <c r="D8">
         <v>30</v>
       </c>
       <c r="E8">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="F8">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.45">
@@ -750,16 +763,16 @@
         <v>33220</v>
       </c>
       <c r="C10">
-        <v>17528</v>
+        <v>17308</v>
       </c>
       <c r="D10">
         <v>55</v>
       </c>
       <c r="E10">
-        <v>32</v>
+        <v>29</v>
       </c>
       <c r="F10">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.45">
@@ -770,13 +783,13 @@
         <v>46332</v>
       </c>
       <c r="C11">
-        <v>23924</v>
+        <v>23704</v>
       </c>
       <c r="D11">
         <v>83</v>
       </c>
       <c r="E11">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="F11">
         <v>5</v>
@@ -830,13 +843,13 @@
         <v>15444</v>
       </c>
       <c r="C14">
-        <v>11028</v>
+        <v>10648</v>
       </c>
       <c r="D14">
         <v>62</v>
       </c>
       <c r="E14">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="F14">
         <v>1</v>
@@ -864,7 +877,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A17" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.45">
@@ -982,20 +995,20 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A32" t="s">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
         <v>27</v>
-      </c>
-      <c r="B32" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A34" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A35" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.45">
@@ -1003,10 +1016,10 @@
         <v>0</v>
       </c>
       <c r="B36" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C36" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D36" t="s">
         <v>16</v>
@@ -1115,7 +1128,7 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A44" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.45">
@@ -1123,10 +1136,10 @@
         <v>0</v>
       </c>
       <c r="B45" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C45" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D45" t="s">
         <v>16</v>
@@ -1140,7 +1153,7 @@
         <v>0.8</v>
       </c>
       <c r="C46" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D46">
         <v>69</v>
@@ -1235,7 +1248,7 @@
     </row>
     <row r="53" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A53" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B53">
         <f>SUM(B43,B52)</f>
@@ -1252,20 +1265,20 @@
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A54" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B54" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
     </row>
     <row r="56" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A56" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="57" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A57" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="58" spans="1:4" x14ac:dyDescent="0.45">
@@ -1273,10 +1286,10 @@
         <v>0</v>
       </c>
       <c r="B58" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C58" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D58" t="s">
         <v>16</v>
@@ -1357,7 +1370,7 @@
     </row>
     <row r="64" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A64" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="65" spans="1:4" x14ac:dyDescent="0.45">
@@ -1365,10 +1378,10 @@
         <v>0</v>
       </c>
       <c r="B65" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C65" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D65" t="s">
         <v>16</v>
@@ -1382,7 +1395,7 @@
         <v>0.8</v>
       </c>
       <c r="C66" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D66">
         <v>36</v>
@@ -1449,7 +1462,7 @@
     </row>
     <row r="71" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A71" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="72" spans="1:4" x14ac:dyDescent="0.45">
@@ -1457,10 +1470,10 @@
         <v>0</v>
       </c>
       <c r="B72" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C72" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D72" t="s">
         <v>16</v>
@@ -1541,7 +1554,7 @@
     </row>
     <row r="78" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A78" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B78">
         <f>SUM(B63,B70,B77)</f>
@@ -1558,10 +1571,10 @@
     </row>
     <row r="79" spans="1:4" x14ac:dyDescent="0.45">
       <c r="A79" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B79" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="80" spans="1:4" x14ac:dyDescent="0.45">
@@ -1572,7 +1585,7 @@
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A82" t="s">
-        <v>34</v>
+        <v>62</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.45">
@@ -1580,16 +1593,16 @@
         <v>0</v>
       </c>
       <c r="B83" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C83" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D83" t="s">
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F83" t="s">
         <v>2</v>
@@ -1597,7 +1610,7 @@
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A84" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B84">
         <v>98500</v>
@@ -1612,12 +1625,12 @@
         <v>60</v>
       </c>
       <c r="F84" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A85" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B85">
         <v>57180</v>
@@ -1632,12 +1645,12 @@
         <v>35</v>
       </c>
       <c r="F85" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A86" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B86">
         <v>98500</v>
@@ -1652,12 +1665,12 @@
         <v>60</v>
       </c>
       <c r="F86" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A87" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B87">
         <v>98500</v>
@@ -1672,12 +1685,12 @@
         <v>60</v>
       </c>
       <c r="F87" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A88" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B88">
         <v>24704</v>
@@ -1692,104 +1705,104 @@
         <v>14</v>
       </c>
       <c r="F88" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A89" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B89">
         <v>98500</v>
       </c>
       <c r="C89">
-        <v>89568</v>
+        <v>86020</v>
       </c>
       <c r="D89">
         <v>60</v>
       </c>
       <c r="E89">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F89">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A90" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B90">
         <v>98500</v>
       </c>
       <c r="C90">
-        <v>8872</v>
+        <v>14712</v>
       </c>
       <c r="D90">
         <v>60</v>
       </c>
       <c r="E90">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="F90">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A91" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B91">
         <v>98500</v>
       </c>
-      <c r="C91">
-        <v>3064</v>
+      <c r="C91" t="s">
+        <v>31</v>
       </c>
       <c r="D91">
         <v>60</v>
       </c>
-      <c r="E91">
-        <v>2</v>
+      <c r="E91" t="s">
+        <v>31</v>
       </c>
       <c r="F91">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A92" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B92">
         <v>98500</v>
       </c>
-      <c r="C92">
-        <v>3068</v>
+      <c r="C92" t="s">
+        <v>31</v>
       </c>
       <c r="D92">
         <v>60</v>
       </c>
-      <c r="E92">
-        <v>1</v>
+      <c r="E92" t="s">
+        <v>31</v>
       </c>
       <c r="F92">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A93" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B93">
         <v>98500</v>
       </c>
       <c r="C93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D93">
         <v>60</v>
       </c>
       <c r="E93" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F93">
         <v>0</v>
@@ -1797,19 +1810,19 @@
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A94" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B94">
         <v>78544</v>
       </c>
       <c r="C94" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D94">
         <v>48</v>
       </c>
       <c r="E94" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F94">
         <v>0</v>
@@ -1817,19 +1830,19 @@
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A95" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="B95">
         <v>98500</v>
       </c>
       <c r="C95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D95">
         <v>60</v>
       </c>
       <c r="E95" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F95">
         <v>0</v>
@@ -1837,19 +1850,19 @@
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A96" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B96">
         <v>98500</v>
       </c>
       <c r="C96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D96">
         <v>60</v>
       </c>
       <c r="E96" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F96">
         <v>0</v>
@@ -1857,39 +1870,39 @@
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A97" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="B97">
         <v>98500</v>
       </c>
       <c r="C97">
-        <v>58904</v>
+        <v>41600</v>
       </c>
       <c r="D97">
         <v>60</v>
       </c>
       <c r="E97">
-        <v>49</v>
+        <v>29</v>
       </c>
       <c r="F97">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A98" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B98">
         <v>98500</v>
       </c>
       <c r="C98">
-        <v>13648</v>
+        <v>8904</v>
       </c>
       <c r="D98">
         <v>60</v>
       </c>
       <c r="E98">
-        <v>21</v>
+        <v>14</v>
       </c>
       <c r="F98">
         <v>2</v>
@@ -1897,19 +1910,19 @@
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A99" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B99">
         <v>98500</v>
       </c>
       <c r="C99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D99">
         <v>60</v>
       </c>
       <c r="E99" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F99">
         <v>0</v>
@@ -1917,19 +1930,19 @@
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A100" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="B100">
         <v>98500</v>
       </c>
       <c r="C100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D100">
         <v>60</v>
       </c>
       <c r="E100" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F100">
         <v>0</v>
@@ -1937,7 +1950,7 @@
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A101" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B101">
         <v>98500</v>
@@ -1957,19 +1970,19 @@
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A102" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="B102">
         <v>31328</v>
       </c>
       <c r="C102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D102">
         <v>19</v>
       </c>
       <c r="E102" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F102">
         <v>0</v>
@@ -1977,19 +1990,19 @@
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A103" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B103">
         <v>98500</v>
       </c>
       <c r="C103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D103">
         <v>60</v>
       </c>
       <c r="E103" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F103">
         <v>0</v>
@@ -1997,19 +2010,19 @@
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A104" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="B104">
         <v>98500</v>
       </c>
       <c r="C104" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D104">
         <v>60</v>
       </c>
       <c r="E104" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F104">
         <v>0</v>
@@ -2017,7 +2030,7 @@
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A105" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B105">
         <v>98500</v>
@@ -2037,39 +2050,39 @@
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A106" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="B106">
         <v>98500</v>
       </c>
       <c r="C106">
-        <v>23396</v>
+        <v>22000</v>
       </c>
       <c r="D106">
         <v>60</v>
       </c>
       <c r="E106">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F106">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A107" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="B107">
         <v>98500</v>
       </c>
       <c r="C107" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D107">
         <v>60</v>
       </c>
       <c r="E107" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F107">
         <v>0</v>
@@ -2077,19 +2090,19 @@
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A108" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B108">
         <v>98500</v>
       </c>
       <c r="C108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="D108">
         <v>60</v>
       </c>
       <c r="E108" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="F108">
         <v>0</v>
@@ -2097,13 +2110,13 @@
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A109" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="B109">
         <v>98500</v>
       </c>
       <c r="C109">
-        <v>24308</v>
+        <v>24356</v>
       </c>
       <c r="D109">
         <v>60</v>
@@ -2117,7 +2130,7 @@
     </row>
     <row r="111" spans="1:6" x14ac:dyDescent="0.45">
       <c r="A111" t="s">
-        <v>18</v>
+        <v>64</v>
       </c>
     </row>
     <row r="112" spans="1:6" x14ac:dyDescent="0.45">
@@ -2130,210 +2143,210 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A113" t="s">
-        <v>35</v>
-      </c>
-      <c r="B113">
-        <v>26.439</v>
+        <v>33</v>
+      </c>
+      <c r="B113" s="2">
+        <v>32.411999999999999</v>
       </c>
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A114" t="s">
-        <v>36</v>
-      </c>
-      <c r="B114">
-        <v>15.901</v>
+        <v>34</v>
+      </c>
+      <c r="B114" s="2">
+        <v>16.224</v>
       </c>
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A115" t="s">
-        <v>37</v>
-      </c>
-      <c r="B115">
-        <v>26.736999999999998</v>
+        <v>35</v>
+      </c>
+      <c r="B115" s="2">
+        <v>29.66</v>
       </c>
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A116" t="s">
-        <v>38</v>
-      </c>
-      <c r="B116">
-        <v>27.82</v>
+        <v>36</v>
+      </c>
+      <c r="B116" s="2">
+        <v>33.314</v>
       </c>
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A117" t="s">
-        <v>39</v>
-      </c>
-      <c r="B117">
-        <v>7.17</v>
+        <v>37</v>
+      </c>
+      <c r="B117" s="2">
+        <v>8.7129999999999992</v>
       </c>
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A118" t="s">
-        <v>40</v>
-      </c>
-      <c r="B118">
-        <v>30.199000000000002</v>
+        <v>38</v>
+      </c>
+      <c r="B118" s="2">
+        <v>382.50599999999997</v>
       </c>
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A119" t="s">
-        <v>41</v>
-      </c>
-      <c r="B119">
-        <v>36.860999999999997</v>
+        <v>39</v>
+      </c>
+      <c r="B119" s="2">
+        <v>33.476999999999997</v>
       </c>
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A120" t="s">
-        <v>42</v>
-      </c>
-      <c r="B120">
-        <v>36.716000000000001</v>
+        <v>40</v>
+      </c>
+      <c r="B120" s="2">
+        <v>33.414000000000001</v>
       </c>
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A121" t="s">
-        <v>43</v>
-      </c>
-      <c r="B121">
-        <v>36.561999999999998</v>
+        <v>41</v>
+      </c>
+      <c r="B121" s="2">
+        <v>33.99</v>
       </c>
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A122" t="s">
-        <v>44</v>
-      </c>
-      <c r="B122">
-        <v>35.945999999999998</v>
+        <v>42</v>
+      </c>
+      <c r="B122" s="2">
+        <v>32.436999999999998</v>
       </c>
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A123" t="s">
-        <v>45</v>
-      </c>
-      <c r="B123">
-        <v>26.963999999999999</v>
+        <v>43</v>
+      </c>
+      <c r="B123" s="2">
+        <v>24.617000000000001</v>
       </c>
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A124" t="s">
-        <v>46</v>
-      </c>
-      <c r="B124">
-        <v>36.438000000000002</v>
+        <v>44</v>
+      </c>
+      <c r="B124" s="2">
+        <v>33.883000000000003</v>
       </c>
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A125" t="s">
-        <v>47</v>
-      </c>
-      <c r="B125">
-        <v>36.392000000000003</v>
+        <v>45</v>
+      </c>
+      <c r="B125" s="2">
+        <v>33.465000000000003</v>
       </c>
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A126" t="s">
-        <v>48</v>
-      </c>
-      <c r="B126">
-        <v>35.395000000000003</v>
+        <v>46</v>
+      </c>
+      <c r="B126" s="2">
+        <v>185.27500000000001</v>
       </c>
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A127" t="s">
-        <v>49</v>
-      </c>
-      <c r="B127">
-        <v>36.844999999999999</v>
+        <v>47</v>
+      </c>
+      <c r="B127" s="2">
+        <v>121.431</v>
       </c>
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A128" t="s">
-        <v>50</v>
-      </c>
-      <c r="B128">
-        <v>36.81</v>
+        <v>48</v>
+      </c>
+      <c r="B128" s="2">
+        <v>34.451999999999998</v>
       </c>
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A129" t="s">
-        <v>51</v>
-      </c>
-      <c r="B129">
-        <v>36.780999999999999</v>
+        <v>49</v>
+      </c>
+      <c r="B129" s="2">
+        <v>34.03</v>
       </c>
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A130" t="s">
-        <v>52</v>
-      </c>
-      <c r="B130">
-        <v>35.555999999999997</v>
+        <v>50</v>
+      </c>
+      <c r="B130" s="2">
+        <v>31.443999999999999</v>
       </c>
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A131" t="s">
-        <v>53</v>
-      </c>
-      <c r="B131">
-        <v>11.531000000000001</v>
+        <v>51</v>
+      </c>
+      <c r="B131" s="2">
+        <v>11.074</v>
       </c>
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A132" t="s">
-        <v>54</v>
-      </c>
-      <c r="B132">
-        <v>37.35</v>
+        <v>52</v>
+      </c>
+      <c r="B132" s="2">
+        <v>34.514000000000003</v>
       </c>
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A133" t="s">
-        <v>55</v>
-      </c>
-      <c r="B133">
-        <v>37.948999999999998</v>
+        <v>53</v>
+      </c>
+      <c r="B133" s="2">
+        <v>34.106000000000002</v>
       </c>
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A134" t="s">
-        <v>56</v>
-      </c>
-      <c r="B134">
-        <v>35.667000000000002</v>
+        <v>54</v>
+      </c>
+      <c r="B134" s="2">
+        <v>34.918999999999997</v>
       </c>
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A135" t="s">
-        <v>57</v>
-      </c>
-      <c r="B135">
-        <v>35.738999999999997</v>
+        <v>55</v>
+      </c>
+      <c r="B135" s="2">
+        <v>252.988</v>
       </c>
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A136" t="s">
-        <v>58</v>
-      </c>
-      <c r="B136">
-        <v>37.073999999999998</v>
+        <v>56</v>
+      </c>
+      <c r="B136" s="2">
+        <v>38.369999999999997</v>
       </c>
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A137" t="s">
-        <v>59</v>
-      </c>
-      <c r="B137">
-        <v>36.835000000000001</v>
+        <v>57</v>
+      </c>
+      <c r="B137" s="2">
+        <v>39.002000000000002</v>
       </c>
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A138" t="s">
-        <v>60</v>
-      </c>
-      <c r="B138">
-        <v>36.14</v>
+        <v>58</v>
+      </c>
+      <c r="B138" s="2">
+        <v>311.221</v>
       </c>
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.45">
@@ -2342,14 +2355,754 @@
       </c>
       <c r="B139">
         <f>SUM(B113:B138)</f>
-        <v>829.81700000000001</v>
+        <v>1890.9379999999999</v>
       </c>
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.45">
       <c r="A140" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B140" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="142" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A142" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="143" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A143" t="s">
+        <v>0</v>
+      </c>
+      <c r="B143" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="144" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A144" t="s">
+        <v>33</v>
+      </c>
+      <c r="B144" s="2">
+        <v>114.48</v>
+      </c>
+    </row>
+    <row r="145" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A145" t="s">
+        <v>34</v>
+      </c>
+      <c r="B145" s="2">
+        <v>60.122</v>
+      </c>
+    </row>
+    <row r="146" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A146" t="s">
+        <v>35</v>
+      </c>
+      <c r="B146" s="2">
+        <v>117.824</v>
+      </c>
+    </row>
+    <row r="147" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A147" t="s">
+        <v>36</v>
+      </c>
+      <c r="B147" s="2">
+        <v>112.123</v>
+      </c>
+    </row>
+    <row r="148" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A148" t="s">
+        <v>37</v>
+      </c>
+      <c r="B148" s="2">
+        <v>30.231999999999999</v>
+      </c>
+    </row>
+    <row r="149" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A149" t="s">
+        <v>38</v>
+      </c>
+      <c r="B149" s="2">
+        <v>1218.2929999999999</v>
+      </c>
+    </row>
+    <row r="150" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A150" t="s">
+        <v>39</v>
+      </c>
+      <c r="B150" s="2">
+        <v>134.45099999999999</v>
+      </c>
+    </row>
+    <row r="151" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A151" t="s">
+        <v>40</v>
+      </c>
+      <c r="B151" s="2">
+        <v>114.49</v>
+      </c>
+    </row>
+    <row r="152" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A152" t="s">
+        <v>41</v>
+      </c>
+      <c r="B152" s="2">
+        <v>134.398</v>
+      </c>
+    </row>
+    <row r="153" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A153" t="s">
+        <v>42</v>
+      </c>
+      <c r="B153" s="2">
+        <v>112.825</v>
+      </c>
+    </row>
+    <row r="154" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A154" t="s">
+        <v>43</v>
+      </c>
+      <c r="B154" s="2">
+        <v>84.173000000000002</v>
+      </c>
+    </row>
+    <row r="155" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A155" t="s">
+        <v>44</v>
+      </c>
+      <c r="B155" s="2">
+        <v>132.29599999999999</v>
+      </c>
+    </row>
+    <row r="156" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A156" t="s">
+        <v>45</v>
+      </c>
+      <c r="B156" s="2">
+        <v>132.77000000000001</v>
+      </c>
+    </row>
+    <row r="157" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A157" t="s">
+        <v>46</v>
+      </c>
+      <c r="B157" s="2">
+        <v>738.52499999999998</v>
+      </c>
+    </row>
+    <row r="158" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A158" t="s">
+        <v>47</v>
+      </c>
+      <c r="B158" s="2">
+        <v>516.70699999999999</v>
+      </c>
+    </row>
+    <row r="159" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A159" t="s">
+        <v>48</v>
+      </c>
+      <c r="B159" s="2">
+        <v>147.51300000000001</v>
+      </c>
+    </row>
+    <row r="160" spans="1:2" x14ac:dyDescent="0.45">
+      <c r="A160" t="s">
+        <v>49</v>
+      </c>
+      <c r="B160" s="2">
+        <v>146.33199999999999</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A161" t="s">
+        <v>50</v>
+      </c>
+      <c r="B161" s="2">
+        <v>259.10199999999998</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A162" t="s">
+        <v>51</v>
+      </c>
+      <c r="B162" s="2">
+        <v>41.496000000000002</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A163" t="s">
+        <v>52</v>
+      </c>
+      <c r="B163" s="2">
+        <v>143.52000000000001</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A164" t="s">
+        <v>53</v>
+      </c>
+      <c r="B164" s="2">
+        <v>112.99299999999999</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A165" t="s">
+        <v>54</v>
+      </c>
+      <c r="B165" s="2">
+        <v>110.06</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A166" t="s">
+        <v>55</v>
+      </c>
+      <c r="B166" s="2">
+        <v>749.572</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A167" t="s">
+        <v>56</v>
+      </c>
+      <c r="B167" s="2">
+        <v>143.71700000000001</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A168" t="s">
+        <v>57</v>
+      </c>
+      <c r="B168" s="2">
+        <v>143.56399999999999</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A169" t="s">
+        <v>58</v>
+      </c>
+      <c r="B169" s="2">
+        <v>839.67600000000004</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A170" t="s">
+        <v>17</v>
+      </c>
+      <c r="B170" s="2">
+        <f>SUM(B144:B169)</f>
+        <v>6591.2540000000017</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A171" t="s">
+        <v>26</v>
+      </c>
+      <c r="B171" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A173" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A174" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A175" t="s">
+        <v>0</v>
+      </c>
+      <c r="B175" t="s">
+        <v>20</v>
+      </c>
+      <c r="C175" t="s">
+        <v>28</v>
+      </c>
+      <c r="D175" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A176" t="s">
+        <v>33</v>
+      </c>
+      <c r="B176" s="2">
+        <v>13.904</v>
+      </c>
+      <c r="C176" s="2">
+        <v>43.66</v>
+      </c>
+      <c r="D176" s="2">
+        <v>76.697000000000003</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A177" t="s">
+        <v>36</v>
+      </c>
+      <c r="B177" s="2">
+        <v>28.797000000000001</v>
+      </c>
+      <c r="C177" s="2">
+        <v>40.194000000000003</v>
+      </c>
+      <c r="D177" s="2">
+        <v>121.095</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A178" t="s">
+        <v>39</v>
+      </c>
+      <c r="B178" s="2">
+        <v>89.198999999999998</v>
+      </c>
+      <c r="C178" s="2">
+        <v>12.573</v>
+      </c>
+      <c r="D178" s="2">
+        <v>111.64700000000001</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A179" t="s">
+        <v>42</v>
+      </c>
+      <c r="B179" s="2">
+        <v>171.70699999999999</v>
+      </c>
+      <c r="C179" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D179" s="2">
+        <v>109.09</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A180" t="s">
+        <v>45</v>
+      </c>
+      <c r="B180" s="2">
+        <v>170.92500000000001</v>
+      </c>
+      <c r="C180" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D180" s="2">
+        <v>109.452</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A181" t="s">
+        <v>48</v>
+      </c>
+      <c r="B181" s="2">
+        <v>200.339</v>
+      </c>
+      <c r="C181" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D181" s="2">
+        <v>111.417</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A182" t="s">
+        <v>51</v>
+      </c>
+      <c r="B182" s="2">
+        <v>216.51499999999999</v>
+      </c>
+      <c r="C182" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D182" s="2">
+        <v>38.741999999999997</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A183" t="s">
+        <v>54</v>
+      </c>
+      <c r="B183" s="2">
+        <v>205.79599999999999</v>
+      </c>
+      <c r="C183" s="2">
+        <v>46.170999999999999</v>
+      </c>
+      <c r="D183" s="2">
+        <v>112.41200000000001</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A184" t="s">
+        <v>57</v>
+      </c>
+      <c r="B184" s="2">
+        <v>222.82900000000001</v>
+      </c>
+      <c r="C184" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D184" s="2">
+        <v>113.931</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A185" t="s">
+        <v>17</v>
+      </c>
+      <c r="B185" s="2">
+        <f>SUM(B176:B184)</f>
+        <v>1320.011</v>
+      </c>
+      <c r="C185" s="2">
+        <f>SUM(C176:C184)</f>
+        <v>142.59799999999998</v>
+      </c>
+      <c r="D185" s="2">
+        <f>SUM(D176:D184)</f>
+        <v>904.48300000000006</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A186" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A187" t="s">
+        <v>0</v>
+      </c>
+      <c r="B187" t="s">
+        <v>20</v>
+      </c>
+      <c r="C187" t="s">
+        <v>28</v>
+      </c>
+      <c r="D187" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A188" t="s">
+        <v>34</v>
+      </c>
+      <c r="B188" s="2">
+        <v>13.872999999999999</v>
+      </c>
+      <c r="C188" s="2">
+        <v>37.994999999999997</v>
+      </c>
+      <c r="D188" s="2">
+        <v>36.906999999999996</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A189" t="s">
+        <v>37</v>
+      </c>
+      <c r="B189" s="2">
+        <v>27.702999999999999</v>
+      </c>
+      <c r="C189" s="2">
+        <v>23.370999999999999</v>
+      </c>
+      <c r="D189" s="2">
+        <v>19.207999999999998</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A190" t="s">
+        <v>40</v>
+      </c>
+      <c r="B190" s="2">
+        <v>119.154</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D190" s="2">
+        <v>67.617999999999995</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A191" t="s">
+        <v>43</v>
+      </c>
+      <c r="B191" s="2">
+        <v>150.96199999999999</v>
+      </c>
+      <c r="C191" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D191" s="2">
+        <v>54.457999999999998</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A192" t="s">
+        <v>46</v>
+      </c>
+      <c r="B192" s="2">
+        <v>194.553</v>
+      </c>
+      <c r="C192" s="2">
+        <v>19.652999999999999</v>
+      </c>
+      <c r="D192" s="2">
+        <v>625.08500000000004</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A193" t="s">
+        <v>49</v>
+      </c>
+      <c r="B193" s="2">
+        <v>216.32499999999999</v>
+      </c>
+      <c r="C193" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D193" s="2">
+        <v>110.077</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A194" t="s">
+        <v>52</v>
+      </c>
+      <c r="B194" s="2">
+        <v>198.797</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D194" s="2">
+        <v>111.988</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A195" t="s">
+        <v>55</v>
+      </c>
+      <c r="B195" s="2">
+        <v>194.25899999999999</v>
+      </c>
+      <c r="C195" s="2">
+        <v>10.496</v>
+      </c>
+      <c r="D195" s="2">
+        <v>711.27300000000002</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A196" t="s">
+        <v>58</v>
+      </c>
+      <c r="B196" s="2">
+        <v>235.27500000000001</v>
+      </c>
+      <c r="C196" s="2">
+        <v>8.6170000000000009</v>
+      </c>
+      <c r="D196" s="2">
+        <v>792.52300000000002</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A197" t="s">
+        <v>17</v>
+      </c>
+      <c r="B197" s="2">
+        <f>SUM(B188:B196)</f>
+        <v>1350.9010000000001</v>
+      </c>
+      <c r="C197" s="2">
+        <f>SUM(C188:C196)</f>
+        <v>100.13200000000001</v>
+      </c>
+      <c r="D197" s="2">
+        <f>SUM(D188:D196)</f>
+        <v>2529.1370000000002</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A198" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A199" t="s">
+        <v>0</v>
+      </c>
+      <c r="B199" t="s">
+        <v>20</v>
+      </c>
+      <c r="C199" t="s">
+        <v>28</v>
+      </c>
+      <c r="D199" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A200" t="s">
+        <v>35</v>
+      </c>
+      <c r="B200" s="2">
+        <v>24.14</v>
+      </c>
+      <c r="C200" s="2">
+        <v>59.478999999999999</v>
+      </c>
+      <c r="D200" s="2">
+        <v>124.32</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A201" t="s">
+        <v>38</v>
+      </c>
+      <c r="B201" s="2">
+        <v>39.274000000000001</v>
+      </c>
+      <c r="C201" s="2">
+        <v>42.43</v>
+      </c>
+      <c r="D201" s="2">
+        <v>1269.1590000000001</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A202" t="s">
+        <v>41</v>
+      </c>
+      <c r="B202" s="2">
+        <v>152.30799999999999</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D202" s="2">
+        <v>109.407</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A203" t="s">
+        <v>44</v>
+      </c>
+      <c r="B203" s="2">
+        <v>144.917</v>
+      </c>
+      <c r="C203" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D203" s="2">
+        <v>134.42599999999999</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A204" t="s">
+        <v>47</v>
+      </c>
+      <c r="B204" s="2">
+        <v>191.40600000000001</v>
+      </c>
+      <c r="C204" s="2">
+        <v>6.4820000000000002</v>
+      </c>
+      <c r="D204" s="2">
+        <v>393.61799999999999</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A205" t="s">
+        <v>50</v>
+      </c>
+      <c r="B205" s="2">
+        <v>237.52099999999999</v>
+      </c>
+      <c r="C205" s="2">
+        <v>3.2639999999999998</v>
+      </c>
+      <c r="D205" s="2">
+        <v>100.39</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A206" t="s">
+        <v>53</v>
+      </c>
+      <c r="B206" s="2">
+        <v>210.92400000000001</v>
+      </c>
+      <c r="C206" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D206" s="2">
+        <v>110.233</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A207" t="s">
+        <v>56</v>
+      </c>
+      <c r="B207" s="2">
+        <v>208.125</v>
+      </c>
+      <c r="C207" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="D207" s="2">
+        <v>114.337</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A208" t="s">
+        <v>17</v>
+      </c>
+      <c r="B208" s="2">
+        <f>SUM(B200:B207)</f>
+        <v>1208.615</v>
+      </c>
+      <c r="C208" s="2">
+        <f>SUM(C200:C207)</f>
+        <v>111.65499999999999</v>
+      </c>
+      <c r="D208" s="2">
+        <f>SUM(D200:D207)</f>
+        <v>2355.89</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A209" t="s">
+        <v>22</v>
+      </c>
+      <c r="B209" s="2">
+        <f>SUM(B185,B197,B208)</f>
+        <v>3879.527</v>
+      </c>
+      <c r="C209" s="2">
+        <f>SUM(C185,C197,C208)</f>
+        <v>354.38499999999999</v>
+      </c>
+      <c r="D209" s="2">
+        <f>SUM(D185,D197,D208)</f>
+        <v>5789.51</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.45">
+      <c r="A210" t="s">
+        <v>26</v>
+      </c>
+      <c r="B210" t="s">
         <v>63</v>
       </c>
     </row>

--- a/results.xlsx
+++ b/results.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\User\Documents\University\2019\Repositories\edgesum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B458C791-96FC-4C5C-9BD8-A10DE21D3694}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC4252C2-9061-4564-88CD-3655EBF84131}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{C9E8864D-5F17-466A-B1FF-8AA41EB8F054}"/>
   </bookViews>
@@ -297,6 +297,4914 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Size (KB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$4:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>test00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>test02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>test03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>test04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>test05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>test06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>test07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>test08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>test09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>test10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>test11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>5104</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>4248</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71856</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>18312</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8856</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12616</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>33220</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>46332</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>15600</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>15272</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>15444</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>40128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-A962-47D8-BC08-55E2170394FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Summarised size (KB)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>1724</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71856</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>8728</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>6932</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>10376</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>17308</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>23704</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>11040</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>10840</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10648</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>38828</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000005-A962-47D8-BC08-55E2170394FD}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="503802480"/>
+        <c:axId val="503802808"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="503802480"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="503802808"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="503802808"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="503802480"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Length (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$4:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>test00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>test02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>test03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>test04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>test05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>test06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>test07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>test08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>test09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>test10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>test11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$D$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-A2D7-49AD-B290-1DF423D959ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Summarised length (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$4:$A$15</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>test00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>test02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>test03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>test04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>test05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>test06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>test07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>test08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>test09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>test10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>test11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$4:$E$15</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>45</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A2D7-49AD-B290-1DF423D959ED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="594033360"/>
+        <c:axId val="594034344"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="594033360"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594034344"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="594034344"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="594033360"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$17:$B$18</c:f>
+              <c:strCache>
+                <c:ptCount val="2"/>
+                <c:pt idx="0">
+                  <c:v>Offline - s8</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Summarisation time (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$19:$A$30</c:f>
+              <c:strCache>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>test00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test01</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>test02</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>test03</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>test04</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>test05</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>test06</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>test07</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>test08</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>test09</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>test10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>test11</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$19:$B$30</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="12"/>
+                <c:pt idx="0">
+                  <c:v>193</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>116</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>471</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>847</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1212</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>109</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-C6AA-4D03-9BE0-A0845AE4E865}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="503802152"/>
+        <c:axId val="503799200"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="503802152"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="503799200"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="503799200"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="503802152"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-AU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
+                <a:effectLst/>
+              </a:rPr>
+              <a:t>n5x-9c8f Transfer Time</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="en-AU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
+              <a:t> </a:t>
+            </a:r>
+            <a:endParaRPr lang="en-AU"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$B$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Transfer time (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$37:$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>test00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>test04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>test06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>test08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>test10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$B$37:$B$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>1.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>13.7</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2000000000000002</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.8</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3.5</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>3</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-3818-4040-A590-A5C6ED173703}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Return time (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$37:$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>test00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>test04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>test06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>test08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>test10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$37:$C$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>0.4</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>25.9</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>5.6</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.4</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3818-4040-A590-A5C6ED173703}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="665658800"/>
+        <c:axId val="665661752"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="665658800"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="665661752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="665661752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="665658800"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="en-US"/>
+              <a:t>n5x-9c8f Summarisation Time</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Summarisation time (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$A$37:$A$42</c:f>
+              <c:strCache>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>test00</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>test02</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>test04</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>test06</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>test08</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>test10</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$37:$D$42</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="6"/>
+                <c:pt idx="0">
+                  <c:v>178</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>122</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>253</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>833</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>93</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-75E3-4B59-97A9-FBA8CE1D29C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="654079376"/>
+        <c:axId val="654089544"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="654079376"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="654089544"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="654089544"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="654079376"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style5.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>235743</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>111918</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>604837</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>100013</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Chart 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{62D324EE-3638-4CCF-8386-A0D080FC4680}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>28576</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>104775</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>316706</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>78580</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2278FAC9-ED09-487B-9345-50A4FC703A92}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>812005</xdr:colOff>
+      <xdr:row>16</xdr:row>
+      <xdr:rowOff>40481</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>521492</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>69056</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F698C348-F618-43B7-AE1C-368CE91A388C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>97631</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>173830</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>535781</xdr:colOff>
+      <xdr:row>48</xdr:row>
+      <xdr:rowOff>21430</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Chart 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EBA80511-E4E5-4AE0-A9CF-127827F1C94F}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>619124</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>16</xdr:col>
+      <xdr:colOff>628649</xdr:colOff>
+      <xdr:row>47</xdr:row>
+      <xdr:rowOff>176213</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Chart 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FEA9EC75-C898-40CC-BDBE-51D1C1D216F6}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -596,8 +5504,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04285B5-A4B2-43D6-9C20-CE6D828CF8A2}">
   <dimension ref="A2:F210"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A142" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C168" sqref="C168"/>
+    <sheetView tabSelected="1" topLeftCell="A22" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D42" activeCellId="1" sqref="A36:A42 D36:D42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
@@ -3110,5 +8018,6 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\User\Documents\University\2020\Repositories\edgesum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BA532773-E61F-482D-A4E5-B2AA8D0DE7BD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBE3128A-7ACF-4E7A-A018-757C140338A6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{C9E8864D-5F17-466A-B1FF-8AA41EB8F054}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="21" r:id="rId2"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5404" uniqueCount="363">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5889" uniqueCount="382">
   <si>
     <t>Name</t>
   </si>
@@ -1123,6 +1126,63 @@
   <si>
     <t xml:space="preserve"> </t>
   </si>
+  <si>
+    <t>Master</t>
+  </si>
+  <si>
+    <t>2802</t>
+  </si>
+  <si>
+    <t>fast</t>
+  </si>
+  <si>
+    <t>best</t>
+  </si>
+  <si>
+    <t>best_or_local</t>
+  </si>
+  <si>
+    <t>fastest</t>
+  </si>
+  <si>
+    <t>least_busy</t>
+  </si>
+  <si>
+    <t>ordered</t>
+  </si>
+  <si>
+    <t>34d8</t>
+  </si>
+  <si>
+    <t>non-fast</t>
+  </si>
+  <si>
+    <t>9c8f</t>
+  </si>
+  <si>
+    <t>Nodes</t>
+  </si>
+  <si>
+    <t>Segments</t>
+  </si>
+  <si>
+    <t>Algorithm</t>
+  </si>
+  <si>
+    <t>Scheduling mode</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Average of Total time (s)</t>
+  </si>
+  <si>
+    <t>offline</t>
+  </si>
 </sst>
 </file>
 
@@ -1168,7 +1228,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1177,17 +1237,40 @@
     <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="right"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="right"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="2"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="3"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="3">
+  <dxfs count="6">
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="30" formatCode="@"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="30" formatCode="@"/>
       <alignment horizontal="right" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -2506,15 +2589,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>4</xdr:col>
-      <xdr:colOff>842962</xdr:colOff>
-      <xdr:row>3229</xdr:row>
-      <xdr:rowOff>61913</xdr:rowOff>
+      <xdr:colOff>128587</xdr:colOff>
+      <xdr:row>3232</xdr:row>
+      <xdr:rowOff>33338</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>461962</xdr:colOff>
-      <xdr:row>3269</xdr:row>
-      <xdr:rowOff>19048</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>871537</xdr:colOff>
+      <xdr:row>3271</xdr:row>
+      <xdr:rowOff>171448</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2542,14 +2625,1085 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jayden King" refreshedDate="44020.902189351851" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="76" xr:uid="{6C2D5BF0-4FDB-476D-B767-29E7E00832D6}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A3311:F3387" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="6">
+    <cacheField name="Master" numFmtId="49">
+      <sharedItems containsMixedTypes="1" containsNumber="1" containsInteger="1" minValue="1825" maxValue="2802" count="5">
+        <n v="1825"/>
+        <n v="2802"/>
+        <s v="34d8"/>
+        <s v="9c8f"/>
+        <s v="2802"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Scheduling mode" numFmtId="0">
+      <sharedItems count="3">
+        <s v="n/a"/>
+        <s v="fast"/>
+        <s v="non-fast"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Segments" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4" count="2">
+        <n v="1"/>
+        <n v="4"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Nodes" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4" count="4">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Algorithm" numFmtId="0">
+      <sharedItems count="7">
+        <s v="offline"/>
+        <s v="best"/>
+        <s v="best_or_local"/>
+        <s v="fastest"/>
+        <s v="least_busy"/>
+        <s v="ordered"/>
+        <s v="n/a" u="1"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Total time (s)" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="429.10399999999998" maxValue="1486.4349999999999"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="76">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1384.346"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="450.875"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1254.444"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1139.654"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1442.175"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="545.49599999999998"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1055.251"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="429.10399999999998"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="813.93100000000004"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="887.86599999999999"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="856.48299999999995"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="868.56"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="600.03399999999999"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="676.39499999999998"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="720.19799999999998"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="796.98900000000003"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1486.4349999999999"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="577.73400000000004"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1056.105"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="535.40899999999999"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="793.71500000000003"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="814.32899999999995"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="804.08600000000001"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="952.92899999999997"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="585.48800000000006"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="677.65200000000004"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="704.04700000000003"/>
+  </r>
+  <r>
+    <x v="4"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="735.30399999999997"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="715.03899999999999"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="720.32799999999997"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="537.27800000000002"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="690.62400000000002"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="562.851"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="487.24799999999999"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="545.596"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="578.39"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="572.00300000000004"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="610.29899999999998"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="595.16499999999996"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="803.76700000000005"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="509.21699999999998"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="703.78499999999997"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="494.59199999999998"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="637.16499999999996"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="646.702"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="568.69299999999998"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="733.11099999999999"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="620.43899999999996"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="521.10900000000004"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="601.12699999999995"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="615.70699999999999"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="591.49300000000005"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="650.42100000000005"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="738.54600000000005"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="518.15099999999995"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="650.68799999999999"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="588.47699999999998"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="632.505"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="588.19299999999998"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="544.84500000000003"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="592.42399999999998"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="613.19200000000001"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="586.76199999999994"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="540.303"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="574.24199999999996"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="597.24199999999996"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="503.51499999999999"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="523.96199999999999"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="505.15699999999998"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="510.68099999999998"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="557.03899999999999"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="597.48199999999997"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="512.44399999999996"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="549.63400000000001"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="747.58"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="730.34500000000003"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{55EF0BFE-A4BE-4ED7-95E6-24CB1ECD20BC}" name="PivotTable3" cacheId="21" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="H3311:I3408" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="6">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="6">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="4"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="4">
+        <item x="1"/>
+        <item x="0"/>
+        <item h="1" x="2"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="8">
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item x="4"/>
+        <item m="1" x="6"/>
+        <item x="5"/>
+        <item x="0"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" showAll="0"/>
+  </pivotFields>
+  <rowFields count="5">
+    <field x="4"/>
+    <field x="0"/>
+    <field x="2"/>
+    <field x="3"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="97">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="5"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x v="1"/>
+    </i>
+    <i r="3">
+      <x v="2"/>
+    </i>
+    <i r="3">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="6"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="4"/>
+    </i>
+    <i r="2">
+      <x/>
+    </i>
+    <i r="3">
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Total time (s)" fld="5" subtotal="average" baseField="3" baseItem="3"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="0" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{AD39FD42-13B4-4130-9D40-3EDB654C3D97}" name="Table5" displayName="Table5" ref="A3233:D3309" totalsRowShown="0">
   <autoFilter ref="A3233:D3309" xr:uid="{A5FE6D2E-8036-484B-9943-0BA594D55DDB}"/>
   <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{10988A5D-1A82-4E9B-AD1D-F8DEB6E5A7B5}" name="Dir" dataDxfId="2"/>
+    <tableColumn id="1" xr3:uid="{10988A5D-1A82-4E9B-AD1D-F8DEB6E5A7B5}" name="Dir" dataDxfId="5"/>
     <tableColumn id="2" xr3:uid="{004B1F00-147B-4C70-906F-9943110373B1}" name=" "/>
-    <tableColumn id="3" xr3:uid="{3136507C-D8CE-498D-AD1E-91AA35A1FC22}" name="Total time (s)" dataDxfId="1"/>
-    <tableColumn id="4" xr3:uid="{12D41956-3911-42AD-880E-456979B18923}" name="Human-readable time" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{3136507C-D8CE-498D-AD1E-91AA35A1FC22}" name="Total time (s)" dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{12D41956-3911-42AD-880E-456979B18923}" name="Human-readable time" dataDxfId="3"/>
+  </tableColumns>
+  <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{AD5B0963-15F7-4CCA-BB28-95374AC07547}" name="Table1" displayName="Table1" ref="A3389:F3465" totalsRowShown="0">
+  <autoFilter ref="A3389:F3465" xr:uid="{0A72617E-D516-4A63-95BC-1E3FFAAA144F}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3390:F3465">
+    <sortCondition ref="E3389:E3465"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{88C44372-E0FE-454C-9785-2A9E42E4934B}" name="Master" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{5D794D74-268F-4564-8478-E6775FAF6872}" name="Scheduling mode" dataDxfId="1"/>
+    <tableColumn id="3" xr3:uid="{AE0DC296-A27F-49A5-8FE6-6D3F781DB5CF}" name="Segments"/>
+    <tableColumn id="4" xr3:uid="{4FA691AA-0EE2-47D2-B017-FCDEA3DA1F45}" name="Nodes"/>
+    <tableColumn id="5" xr3:uid="{07E0D597-1486-4252-8538-112C0D4C7080}" name="Algorithm" dataDxfId="0"/>
+    <tableColumn id="6" xr3:uid="{9D91FB42-7221-4E70-9AF9-7B4E981CCD78}" name="Total time (s)"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2852,17 +4006,18 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04285B5-A4B2-43D6-9C20-CE6D828CF8A2}">
-  <dimension ref="A1:K3309"/>
+  <dimension ref="A1:K3465"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3229" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E3232" sqref="E3232"/>
+    <sheetView tabSelected="1" topLeftCell="A3404" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E3426" sqref="E3426"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="1" max="8" width="22.59765625" customWidth="1"/>
-    <col min="9" max="9" width="15.73046875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="15.73046875" bestFit="1" customWidth="1"/>
+    <col min="1" max="7" width="22.59765625" customWidth="1"/>
+    <col min="8" max="8" width="13.3984375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="20.9296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="12.1328125" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="14.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2870,14 +4025,14 @@
       <c r="A1" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="E1" s="8" t="s">
+      <c r="E1" s="9" t="s">
         <v>29</v>
       </c>
-      <c r="F1" s="8"/>
-      <c r="G1" s="8" t="s">
+      <c r="F1" s="9"/>
+      <c r="G1" s="9" t="s">
         <v>361</v>
       </c>
-      <c r="H1" s="8"/>
+      <c r="H1" s="9"/>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A2" s="4" t="s">
@@ -58338,7 +59493,7 @@
       <c r="C3234" s="1">
         <v>1384.346</v>
       </c>
-      <c r="D3234" s="9" t="s">
+      <c r="D3234" s="8" t="s">
         <v>139</v>
       </c>
       <c r="E3234" s="6"/>
@@ -58352,7 +59507,7 @@
       <c r="C3235" s="1">
         <v>450.875</v>
       </c>
-      <c r="D3235" s="9" t="s">
+      <c r="D3235" s="8" t="s">
         <v>138</v>
       </c>
       <c r="E3235" s="6"/>
@@ -58366,7 +59521,7 @@
       <c r="C3236" s="1">
         <v>1254.444</v>
       </c>
-      <c r="D3236" s="9" t="s">
+      <c r="D3236" s="8" t="s">
         <v>137</v>
       </c>
       <c r="E3236" s="6"/>
@@ -58380,7 +59535,7 @@
       <c r="C3237" s="1">
         <v>1139.654</v>
       </c>
-      <c r="D3237" s="9" t="s">
+      <c r="D3237" s="8" t="s">
         <v>140</v>
       </c>
       <c r="E3237" s="6"/>
@@ -58394,7 +59549,7 @@
       <c r="C3238" s="1">
         <v>1442.175</v>
       </c>
-      <c r="D3238" s="9" t="s">
+      <c r="D3238" s="8" t="s">
         <v>141</v>
       </c>
       <c r="E3238" s="6"/>
@@ -58408,7 +59563,7 @@
       <c r="C3239" s="1">
         <v>545.49599999999998</v>
       </c>
-      <c r="D3239" s="9" t="s">
+      <c r="D3239" s="8" t="s">
         <v>142</v>
       </c>
       <c r="E3239" s="6"/>
@@ -58422,7 +59577,7 @@
       <c r="C3240" s="1">
         <v>1055.251</v>
       </c>
-      <c r="D3240" s="9" t="s">
+      <c r="D3240" s="8" t="s">
         <v>143</v>
       </c>
       <c r="E3240" s="6"/>
@@ -58436,7 +59591,7 @@
       <c r="C3241" s="1">
         <v>429.10399999999998</v>
       </c>
-      <c r="D3241" s="9" t="s">
+      <c r="D3241" s="8" t="s">
         <v>147</v>
       </c>
       <c r="E3241" s="6"/>
@@ -58450,7 +59605,7 @@
       <c r="C3242" s="1">
         <v>813.93100000000004</v>
       </c>
-      <c r="D3242" s="9" t="s">
+      <c r="D3242" s="8" t="s">
         <v>144</v>
       </c>
       <c r="E3242" s="6"/>
@@ -58464,7 +59619,7 @@
       <c r="C3243" s="1">
         <v>887.86599999999999</v>
       </c>
-      <c r="D3243" s="9" t="s">
+      <c r="D3243" s="8" t="s">
         <v>145</v>
       </c>
       <c r="E3243" s="6"/>
@@ -58478,7 +59633,7 @@
       <c r="C3244" s="1">
         <v>856.48299999999995</v>
       </c>
-      <c r="D3244" s="9" t="s">
+      <c r="D3244" s="8" t="s">
         <v>146</v>
       </c>
       <c r="E3244" s="6"/>
@@ -58492,7 +59647,7 @@
       <c r="C3245" s="1">
         <v>868.56</v>
       </c>
-      <c r="D3245" s="9" t="s">
+      <c r="D3245" s="8" t="s">
         <v>148</v>
       </c>
       <c r="E3245" s="6"/>
@@ -58506,7 +59661,7 @@
       <c r="C3246" s="1">
         <v>600.03399999999999</v>
       </c>
-      <c r="D3246" s="9" t="s">
+      <c r="D3246" s="8" t="s">
         <v>152</v>
       </c>
       <c r="E3246" s="6"/>
@@ -58520,7 +59675,7 @@
       <c r="C3247" s="1">
         <v>676.39499999999998</v>
       </c>
-      <c r="D3247" s="9" t="s">
+      <c r="D3247" s="8" t="s">
         <v>149</v>
       </c>
       <c r="E3247" s="6"/>
@@ -58534,7 +59689,7 @@
       <c r="C3248" s="1">
         <v>720.19799999999998</v>
       </c>
-      <c r="D3248" s="9" t="s">
+      <c r="D3248" s="8" t="s">
         <v>150</v>
       </c>
       <c r="E3248" s="6"/>
@@ -58548,7 +59703,7 @@
       <c r="C3249" s="1">
         <v>796.98900000000003</v>
       </c>
-      <c r="D3249" s="9" t="s">
+      <c r="D3249" s="8" t="s">
         <v>151</v>
       </c>
       <c r="E3249" s="6"/>
@@ -58562,7 +59717,7 @@
       <c r="C3250" s="1">
         <v>1486.4349999999999</v>
       </c>
-      <c r="D3250" s="9" t="s">
+      <c r="D3250" s="8" t="s">
         <v>153</v>
       </c>
       <c r="E3250" s="6"/>
@@ -58576,7 +59731,7 @@
       <c r="C3251" s="1">
         <v>577.73400000000004</v>
       </c>
-      <c r="D3251" s="9" t="s">
+      <c r="D3251" s="8" t="s">
         <v>154</v>
       </c>
       <c r="E3251" s="6"/>
@@ -58590,7 +59745,7 @@
       <c r="C3252" s="1">
         <v>1056.105</v>
       </c>
-      <c r="D3252" s="9" t="s">
+      <c r="D3252" s="8" t="s">
         <v>155</v>
       </c>
       <c r="E3252" s="6"/>
@@ -58604,7 +59759,7 @@
       <c r="C3253" s="1">
         <v>535.40899999999999</v>
       </c>
-      <c r="D3253" s="9" t="s">
+      <c r="D3253" s="8" t="s">
         <v>159</v>
       </c>
       <c r="E3253" s="6"/>
@@ -58618,7 +59773,7 @@
       <c r="C3254" s="1">
         <v>793.71500000000003</v>
       </c>
-      <c r="D3254" s="9" t="s">
+      <c r="D3254" s="8" t="s">
         <v>156</v>
       </c>
       <c r="E3254" s="6"/>
@@ -58632,7 +59787,7 @@
       <c r="C3255" s="1">
         <v>814.32899999999995</v>
       </c>
-      <c r="D3255" s="9" t="s">
+      <c r="D3255" s="8" t="s">
         <v>157</v>
       </c>
       <c r="E3255" s="6"/>
@@ -58646,7 +59801,7 @@
       <c r="C3256" s="1">
         <v>804.08600000000001</v>
       </c>
-      <c r="D3256" s="9" t="s">
+      <c r="D3256" s="8" t="s">
         <v>158</v>
       </c>
       <c r="E3256" s="6"/>
@@ -58660,7 +59815,7 @@
       <c r="C3257" s="1">
         <v>952.92899999999997</v>
       </c>
-      <c r="D3257" s="9" t="s">
+      <c r="D3257" s="8" t="s">
         <v>160</v>
       </c>
       <c r="E3257" s="6"/>
@@ -58674,7 +59829,7 @@
       <c r="C3258" s="1">
         <v>585.48800000000006</v>
       </c>
-      <c r="D3258" s="9" t="s">
+      <c r="D3258" s="8" t="s">
         <v>164</v>
       </c>
       <c r="E3258" s="6"/>
@@ -58688,7 +59843,7 @@
       <c r="C3259" s="1">
         <v>677.65200000000004</v>
       </c>
-      <c r="D3259" s="9" t="s">
+      <c r="D3259" s="8" t="s">
         <v>161</v>
       </c>
       <c r="E3259" s="6"/>
@@ -58702,7 +59857,7 @@
       <c r="C3260" s="1">
         <v>704.04700000000003</v>
       </c>
-      <c r="D3260" s="9" t="s">
+      <c r="D3260" s="8" t="s">
         <v>162</v>
       </c>
       <c r="E3260" s="6"/>
@@ -58716,7 +59871,7 @@
       <c r="C3261" s="1">
         <v>735.30399999999997</v>
       </c>
-      <c r="D3261" s="9" t="s">
+      <c r="D3261" s="8" t="s">
         <v>163</v>
       </c>
       <c r="E3261" s="6"/>
@@ -58730,7 +59885,7 @@
       <c r="C3262" s="1">
         <v>715.03899999999999</v>
       </c>
-      <c r="D3262" s="9" t="s">
+      <c r="D3262" s="8" t="s">
         <v>165</v>
       </c>
       <c r="E3262" s="6"/>
@@ -58744,7 +59899,7 @@
       <c r="C3263" s="1">
         <v>720.32799999999997</v>
       </c>
-      <c r="D3263" s="9" t="s">
+      <c r="D3263" s="8" t="s">
         <v>166</v>
       </c>
       <c r="E3263" s="6"/>
@@ -58758,7 +59913,7 @@
       <c r="C3264" s="1">
         <v>537.27800000000002</v>
       </c>
-      <c r="D3264" s="9" t="s">
+      <c r="D3264" s="8" t="s">
         <v>167</v>
       </c>
       <c r="E3264" s="6"/>
@@ -58772,7 +59927,7 @@
       <c r="C3265" s="1">
         <v>690.62400000000002</v>
       </c>
-      <c r="D3265" s="9" t="s">
+      <c r="D3265" s="8" t="s">
         <v>171</v>
       </c>
       <c r="E3265" s="6"/>
@@ -58786,7 +59941,7 @@
       <c r="C3266" s="1">
         <v>562.851</v>
       </c>
-      <c r="D3266" s="9" t="s">
+      <c r="D3266" s="8" t="s">
         <v>168</v>
       </c>
       <c r="E3266" s="6"/>
@@ -58800,7 +59955,7 @@
       <c r="C3267" s="1">
         <v>487.24799999999999</v>
       </c>
-      <c r="D3267" s="9" t="s">
+      <c r="D3267" s="8" t="s">
         <v>169</v>
       </c>
       <c r="E3267" s="6"/>
@@ -58814,7 +59969,7 @@
       <c r="C3268" s="1">
         <v>545.596</v>
       </c>
-      <c r="D3268" s="9" t="s">
+      <c r="D3268" s="8" t="s">
         <v>170</v>
       </c>
       <c r="E3268" s="6"/>
@@ -58828,7 +59983,7 @@
       <c r="C3269" s="1">
         <v>578.39</v>
       </c>
-      <c r="D3269" s="9" t="s">
+      <c r="D3269" s="8" t="s">
         <v>172</v>
       </c>
       <c r="E3269" s="6"/>
@@ -58842,7 +59997,7 @@
       <c r="C3270" s="1">
         <v>572.00300000000004</v>
       </c>
-      <c r="D3270" s="9" t="s">
+      <c r="D3270" s="8" t="s">
         <v>176</v>
       </c>
       <c r="E3270" s="6"/>
@@ -58856,7 +60011,7 @@
       <c r="C3271" s="1">
         <v>610.29899999999998</v>
       </c>
-      <c r="D3271" s="9" t="s">
+      <c r="D3271" s="8" t="s">
         <v>173</v>
       </c>
       <c r="E3271" s="6"/>
@@ -58870,7 +60025,7 @@
       <c r="C3272" s="1">
         <v>595.16499999999996</v>
       </c>
-      <c r="D3272" s="9" t="s">
+      <c r="D3272" s="8" t="s">
         <v>174</v>
       </c>
       <c r="E3272" s="6"/>
@@ -58884,7 +60039,7 @@
       <c r="C3273" s="1">
         <v>803.76700000000005</v>
       </c>
-      <c r="D3273" s="9" t="s">
+      <c r="D3273" s="8" t="s">
         <v>175</v>
       </c>
       <c r="E3273" s="6"/>
@@ -58898,7 +60053,7 @@
       <c r="C3274" s="1">
         <v>509.21699999999998</v>
       </c>
-      <c r="D3274" s="9" t="s">
+      <c r="D3274" s="8" t="s">
         <v>177</v>
       </c>
       <c r="E3274" s="6"/>
@@ -58912,7 +60067,7 @@
       <c r="C3275" s="1">
         <v>703.78499999999997</v>
       </c>
-      <c r="D3275" s="9" t="s">
+      <c r="D3275" s="8" t="s">
         <v>178</v>
       </c>
       <c r="E3275" s="6"/>
@@ -58926,7 +60081,7 @@
       <c r="C3276" s="1">
         <v>494.59199999999998</v>
       </c>
-      <c r="D3276" s="9" t="s">
+      <c r="D3276" s="8" t="s">
         <v>179</v>
       </c>
       <c r="E3276" s="6"/>
@@ -58940,7 +60095,7 @@
       <c r="C3277" s="1">
         <v>637.16499999999996</v>
       </c>
-      <c r="D3277" s="9" t="s">
+      <c r="D3277" s="8" t="s">
         <v>183</v>
       </c>
       <c r="E3277" s="6"/>
@@ -58954,7 +60109,7 @@
       <c r="C3278" s="1">
         <v>646.702</v>
       </c>
-      <c r="D3278" s="9" t="s">
+      <c r="D3278" s="8" t="s">
         <v>180</v>
       </c>
       <c r="E3278" s="6"/>
@@ -58968,7 +60123,7 @@
       <c r="C3279" s="1">
         <v>568.69299999999998</v>
       </c>
-      <c r="D3279" s="9" t="s">
+      <c r="D3279" s="8" t="s">
         <v>181</v>
       </c>
       <c r="E3279" s="6"/>
@@ -58982,7 +60137,7 @@
       <c r="C3280" s="1">
         <v>733.11099999999999</v>
       </c>
-      <c r="D3280" s="9" t="s">
+      <c r="D3280" s="8" t="s">
         <v>182</v>
       </c>
       <c r="E3280" s="6"/>
@@ -58996,7 +60151,7 @@
       <c r="C3281" s="1">
         <v>620.43899999999996</v>
       </c>
-      <c r="D3281" s="9" t="s">
+      <c r="D3281" s="8" t="s">
         <v>184</v>
       </c>
       <c r="E3281" s="6"/>
@@ -59010,7 +60165,7 @@
       <c r="C3282" s="1">
         <v>521.10900000000004</v>
       </c>
-      <c r="D3282" s="9" t="s">
+      <c r="D3282" s="8" t="s">
         <v>188</v>
       </c>
       <c r="E3282" s="6"/>
@@ -59024,7 +60179,7 @@
       <c r="C3283" s="1">
         <v>601.12699999999995</v>
       </c>
-      <c r="D3283" s="9" t="s">
+      <c r="D3283" s="8" t="s">
         <v>185</v>
       </c>
       <c r="E3283" s="6"/>
@@ -59038,7 +60193,7 @@
       <c r="C3284" s="1">
         <v>615.70699999999999</v>
       </c>
-      <c r="D3284" s="9" t="s">
+      <c r="D3284" s="8" t="s">
         <v>186</v>
       </c>
       <c r="E3284" s="6"/>
@@ -59052,7 +60207,7 @@
       <c r="C3285" s="1">
         <v>591.49300000000005</v>
       </c>
-      <c r="D3285" s="9" t="s">
+      <c r="D3285" s="8" t="s">
         <v>187</v>
       </c>
       <c r="E3285" s="6"/>
@@ -59066,7 +60221,7 @@
       <c r="C3286" s="1">
         <v>650.42100000000005</v>
       </c>
-      <c r="D3286" s="9" t="s">
+      <c r="D3286" s="8" t="s">
         <v>189</v>
       </c>
       <c r="E3286" s="6"/>
@@ -59080,7 +60235,7 @@
       <c r="C3287" s="1">
         <v>738.54600000000005</v>
       </c>
-      <c r="D3287" s="9" t="s">
+      <c r="D3287" s="8" t="s">
         <v>190</v>
       </c>
       <c r="E3287" s="6"/>
@@ -59094,7 +60249,7 @@
       <c r="C3288" s="1">
         <v>518.15099999999995</v>
       </c>
-      <c r="D3288" s="9" t="s">
+      <c r="D3288" s="8" t="s">
         <v>191</v>
       </c>
       <c r="E3288" s="6"/>
@@ -59108,7 +60263,7 @@
       <c r="C3289" s="1">
         <v>650.68799999999999</v>
       </c>
-      <c r="D3289" s="9" t="s">
+      <c r="D3289" s="8" t="s">
         <v>195</v>
       </c>
       <c r="E3289" s="6"/>
@@ -59122,7 +60277,7 @@
       <c r="C3290" s="1">
         <v>588.47699999999998</v>
       </c>
-      <c r="D3290" s="9" t="s">
+      <c r="D3290" s="8" t="s">
         <v>192</v>
       </c>
       <c r="E3290" s="6"/>
@@ -59136,7 +60291,7 @@
       <c r="C3291" s="1">
         <v>632.505</v>
       </c>
-      <c r="D3291" s="9" t="s">
+      <c r="D3291" s="8" t="s">
         <v>193</v>
       </c>
       <c r="E3291" s="6"/>
@@ -59150,7 +60305,7 @@
       <c r="C3292" s="1">
         <v>588.19299999999998</v>
       </c>
-      <c r="D3292" s="9" t="s">
+      <c r="D3292" s="8" t="s">
         <v>194</v>
       </c>
       <c r="E3292" s="6"/>
@@ -59164,7 +60319,7 @@
       <c r="C3293" s="1">
         <v>544.84500000000003</v>
       </c>
-      <c r="D3293" s="9" t="s">
+      <c r="D3293" s="8" t="s">
         <v>196</v>
       </c>
       <c r="E3293" s="6"/>
@@ -59178,7 +60333,7 @@
       <c r="C3294" s="1">
         <v>592.42399999999998</v>
       </c>
-      <c r="D3294" s="9" t="s">
+      <c r="D3294" s="8" t="s">
         <v>200</v>
       </c>
       <c r="E3294" s="6"/>
@@ -59192,7 +60347,7 @@
       <c r="C3295" s="1">
         <v>613.19200000000001</v>
       </c>
-      <c r="D3295" s="9" t="s">
+      <c r="D3295" s="8" t="s">
         <v>197</v>
       </c>
       <c r="E3295" s="6"/>
@@ -59206,7 +60361,7 @@
       <c r="C3296" s="1">
         <v>586.76199999999994</v>
       </c>
-      <c r="D3296" s="9" t="s">
+      <c r="D3296" s="8" t="s">
         <v>198</v>
       </c>
       <c r="E3296" s="6"/>
@@ -59220,7 +60375,7 @@
       <c r="C3297" s="1">
         <v>540.303</v>
       </c>
-      <c r="D3297" s="9" t="s">
+      <c r="D3297" s="8" t="s">
         <v>199</v>
       </c>
       <c r="E3297" s="6"/>
@@ -59234,7 +60389,7 @@
       <c r="C3298" s="1">
         <v>574.24199999999996</v>
       </c>
-      <c r="D3298" s="9" t="s">
+      <c r="D3298" s="8" t="s">
         <v>201</v>
       </c>
       <c r="E3298" s="6"/>
@@ -59248,7 +60403,7 @@
       <c r="C3299" s="1">
         <v>597.24199999999996</v>
       </c>
-      <c r="D3299" s="9" t="s">
+      <c r="D3299" s="8" t="s">
         <v>202</v>
       </c>
       <c r="E3299" s="6"/>
@@ -59262,7 +60417,7 @@
       <c r="C3300" s="1">
         <v>503.51499999999999</v>
       </c>
-      <c r="D3300" s="9" t="s">
+      <c r="D3300" s="8" t="s">
         <v>203</v>
       </c>
       <c r="E3300" s="6"/>
@@ -59276,7 +60431,7 @@
       <c r="C3301" s="1">
         <v>523.96199999999999</v>
       </c>
-      <c r="D3301" s="9" t="s">
+      <c r="D3301" s="8" t="s">
         <v>207</v>
       </c>
       <c r="E3301" s="6"/>
@@ -59290,7 +60445,7 @@
       <c r="C3302" s="1">
         <v>505.15699999999998</v>
       </c>
-      <c r="D3302" s="9" t="s">
+      <c r="D3302" s="8" t="s">
         <v>204</v>
       </c>
       <c r="E3302" s="6"/>
@@ -59304,7 +60459,7 @@
       <c r="C3303" s="1">
         <v>510.68099999999998</v>
       </c>
-      <c r="D3303" s="9" t="s">
+      <c r="D3303" s="8" t="s">
         <v>205</v>
       </c>
       <c r="E3303" s="6"/>
@@ -59318,7 +60473,7 @@
       <c r="C3304" s="1">
         <v>557.03899999999999</v>
       </c>
-      <c r="D3304" s="9" t="s">
+      <c r="D3304" s="8" t="s">
         <v>206</v>
       </c>
       <c r="E3304" s="6"/>
@@ -59332,7 +60487,7 @@
       <c r="C3305" s="1">
         <v>597.48199999999997</v>
       </c>
-      <c r="D3305" s="9" t="s">
+      <c r="D3305" s="8" t="s">
         <v>208</v>
       </c>
       <c r="E3305" s="6"/>
@@ -59346,7 +60501,7 @@
       <c r="C3306" s="1">
         <v>512.44399999999996</v>
       </c>
-      <c r="D3306" s="9" t="s">
+      <c r="D3306" s="8" t="s">
         <v>212</v>
       </c>
       <c r="E3306" s="6"/>
@@ -59360,7 +60515,7 @@
       <c r="C3307" s="1">
         <v>549.63400000000001</v>
       </c>
-      <c r="D3307" s="9" t="s">
+      <c r="D3307" s="8" t="s">
         <v>209</v>
       </c>
       <c r="E3307" s="6"/>
@@ -59374,7 +60529,7 @@
       <c r="C3308" s="1">
         <v>747.58</v>
       </c>
-      <c r="D3308" s="9" t="s">
+      <c r="D3308" s="8" t="s">
         <v>210</v>
       </c>
       <c r="E3308" s="6"/>
@@ -59388,12 +60543,3682 @@
       <c r="C3309" s="1">
         <v>730.34500000000003</v>
       </c>
-      <c r="D3309" s="9" t="s">
+      <c r="D3309" s="8" t="s">
         <v>211</v>
       </c>
       <c r="E3309" s="6"/>
       <c r="H3309" s="6"/>
       <c r="I3309" s="6"/>
+    </row>
+    <row r="3311" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3311" t="s">
+        <v>363</v>
+      </c>
+      <c r="B3311" t="s">
+        <v>377</v>
+      </c>
+      <c r="C3311" t="s">
+        <v>375</v>
+      </c>
+      <c r="D3311" t="s">
+        <v>374</v>
+      </c>
+      <c r="E3311" t="s">
+        <v>376</v>
+      </c>
+      <c r="F3311" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3311" s="10" t="s">
+        <v>378</v>
+      </c>
+      <c r="I3311" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="3312" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3312" s="7">
+        <v>1825</v>
+      </c>
+      <c r="B3312" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3312" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3312" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3312" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="F3312">
+        <v>1384.346</v>
+      </c>
+      <c r="H3312" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="I3312" s="13">
+        <v>859.70083333333343</v>
+      </c>
+    </row>
+    <row r="3313" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3313" s="7">
+        <v>2802</v>
+      </c>
+      <c r="B3313" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3313" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3313" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3313" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="F3313">
+        <v>450.875</v>
+      </c>
+      <c r="H3313" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="I3313" s="13">
+        <v>1143.5758333333333</v>
+      </c>
+    </row>
+    <row r="3314" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3314" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3314" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3314" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3314" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3314" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="F3314">
+        <v>1254.444</v>
+      </c>
+      <c r="H3314" s="14">
+        <v>1</v>
+      </c>
+      <c r="I3314" s="13">
+        <v>1121.9953333333333</v>
+      </c>
+    </row>
+    <row r="3315" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3315" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="B3315" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3315" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3315" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3315" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="F3315">
+        <v>1139.654</v>
+      </c>
+      <c r="H3315" s="15">
+        <v>2</v>
+      </c>
+      <c r="I3315" s="13">
+        <v>1442.175</v>
+      </c>
+    </row>
+    <row r="3316" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3316" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3316" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3316">
+        <v>1</v>
+      </c>
+      <c r="D3316">
+        <v>2</v>
+      </c>
+      <c r="E3316" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3316">
+        <v>1442.175</v>
+      </c>
+      <c r="H3316" s="15">
+        <v>3</v>
+      </c>
+      <c r="I3316" s="13">
+        <v>1055.251</v>
+      </c>
+    </row>
+    <row r="3317" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3317" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3317" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3317">
+        <v>1</v>
+      </c>
+      <c r="D3317">
+        <v>2</v>
+      </c>
+      <c r="E3317" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3317">
+        <v>545.49599999999998</v>
+      </c>
+      <c r="H3317" s="15">
+        <v>4</v>
+      </c>
+      <c r="I3317" s="13">
+        <v>868.56</v>
+      </c>
+    </row>
+    <row r="3318" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3318" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3318" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3318">
+        <v>1</v>
+      </c>
+      <c r="D3318">
+        <v>3</v>
+      </c>
+      <c r="E3318" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3318">
+        <v>1055.251</v>
+      </c>
+      <c r="H3318" s="14">
+        <v>4</v>
+      </c>
+      <c r="I3318" s="13">
+        <v>1165.1563333333334</v>
+      </c>
+    </row>
+    <row r="3319" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3319" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3319" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3319">
+        <v>1</v>
+      </c>
+      <c r="D3319">
+        <v>3</v>
+      </c>
+      <c r="E3319" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3319">
+        <v>429.10399999999998</v>
+      </c>
+      <c r="H3319" s="15">
+        <v>2</v>
+      </c>
+      <c r="I3319" s="13">
+        <v>1486.4349999999999</v>
+      </c>
+    </row>
+    <row r="3320" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3320" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3320" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3320">
+        <v>1</v>
+      </c>
+      <c r="D3320">
+        <v>3</v>
+      </c>
+      <c r="E3320" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F3320">
+        <v>813.93100000000004</v>
+      </c>
+      <c r="H3320" s="15">
+        <v>3</v>
+      </c>
+      <c r="I3320" s="13">
+        <v>1056.105</v>
+      </c>
+    </row>
+    <row r="3321" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3321" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3321" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3321">
+        <v>1</v>
+      </c>
+      <c r="D3321">
+        <v>3</v>
+      </c>
+      <c r="E3321" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F3321">
+        <v>887.86599999999999</v>
+      </c>
+      <c r="H3321" s="15">
+        <v>4</v>
+      </c>
+      <c r="I3321" s="13">
+        <v>952.92899999999997</v>
+      </c>
+    </row>
+    <row r="3322" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3322" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3322" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3322">
+        <v>1</v>
+      </c>
+      <c r="D3322">
+        <v>3</v>
+      </c>
+      <c r="E3322" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F3322">
+        <v>856.48299999999995</v>
+      </c>
+      <c r="H3322" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="I3322" s="13">
+        <v>575.82583333333332</v>
+      </c>
+    </row>
+    <row r="3323" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3323" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3323" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3323">
+        <v>1</v>
+      </c>
+      <c r="D3323">
+        <v>4</v>
+      </c>
+      <c r="E3323" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3323">
+        <v>868.56</v>
+      </c>
+      <c r="H3323" s="14">
+        <v>1</v>
+      </c>
+      <c r="I3323" s="13">
+        <v>610.23566666666659</v>
+      </c>
+    </row>
+    <row r="3324" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3324" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3324" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3324">
+        <v>1</v>
+      </c>
+      <c r="D3324">
+        <v>4</v>
+      </c>
+      <c r="E3324" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3324">
+        <v>600.03399999999999</v>
+      </c>
+      <c r="H3324" s="15">
+        <v>2</v>
+      </c>
+      <c r="I3324" s="13">
+        <v>715.03899999999999</v>
+      </c>
+    </row>
+    <row r="3325" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3325" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3325" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3325">
+        <v>1</v>
+      </c>
+      <c r="D3325">
+        <v>4</v>
+      </c>
+      <c r="E3325" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F3325">
+        <v>676.39499999999998</v>
+      </c>
+      <c r="H3325" s="15">
+        <v>3</v>
+      </c>
+      <c r="I3325" s="13">
+        <v>537.27800000000002</v>
+      </c>
+    </row>
+    <row r="3326" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3326" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3326" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3326">
+        <v>1</v>
+      </c>
+      <c r="D3326">
+        <v>4</v>
+      </c>
+      <c r="E3326" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F3326">
+        <v>720.19799999999998</v>
+      </c>
+      <c r="H3326" s="15">
+        <v>4</v>
+      </c>
+      <c r="I3326" s="13">
+        <v>578.39</v>
+      </c>
+    </row>
+    <row r="3327" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3327" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3327" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3327">
+        <v>1</v>
+      </c>
+      <c r="D3327">
+        <v>4</v>
+      </c>
+      <c r="E3327" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F3327">
+        <v>796.98900000000003</v>
+      </c>
+      <c r="H3327" s="14">
+        <v>4</v>
+      </c>
+      <c r="I3327" s="13">
+        <v>541.41600000000005</v>
+      </c>
+    </row>
+    <row r="3328" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3328" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3328" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3328">
+        <v>4</v>
+      </c>
+      <c r="D3328">
+        <v>2</v>
+      </c>
+      <c r="E3328" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3328">
+        <v>1486.4349999999999</v>
+      </c>
+      <c r="H3328" s="15">
+        <v>2</v>
+      </c>
+      <c r="I3328" s="13">
+        <v>509.21699999999998</v>
+      </c>
+    </row>
+    <row r="3329" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3329" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3329" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3329">
+        <v>4</v>
+      </c>
+      <c r="D3329">
+        <v>2</v>
+      </c>
+      <c r="E3329" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3329">
+        <v>577.73400000000004</v>
+      </c>
+      <c r="H3329" s="15">
+        <v>3</v>
+      </c>
+      <c r="I3329" s="13">
+        <v>494.59199999999998</v>
+      </c>
+    </row>
+    <row r="3330" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3330" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3330" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3330">
+        <v>4</v>
+      </c>
+      <c r="D3330">
+        <v>3</v>
+      </c>
+      <c r="E3330" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3330">
+        <v>1056.105</v>
+      </c>
+      <c r="H3330" s="15">
+        <v>4</v>
+      </c>
+      <c r="I3330" s="13">
+        <v>620.43899999999996</v>
+      </c>
+    </row>
+    <row r="3331" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3331" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3331" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3331">
+        <v>4</v>
+      </c>
+      <c r="D3331">
+        <v>3</v>
+      </c>
+      <c r="E3331" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3331">
+        <v>535.40899999999999</v>
+      </c>
+      <c r="H3331" s="11" t="s">
+        <v>367</v>
+      </c>
+      <c r="I3331" s="13">
+        <v>593.1899166666667</v>
+      </c>
+    </row>
+    <row r="3332" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3332" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3332" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3332">
+        <v>4</v>
+      </c>
+      <c r="D3332">
+        <v>3</v>
+      </c>
+      <c r="E3332" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F3332">
+        <v>793.71500000000003</v>
+      </c>
+      <c r="H3332" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="I3332" s="13">
+        <v>545.54416666666668</v>
+      </c>
+    </row>
+    <row r="3333" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3333" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3333" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3333">
+        <v>4</v>
+      </c>
+      <c r="D3333">
+        <v>3</v>
+      </c>
+      <c r="E3333" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F3333">
+        <v>814.32899999999995</v>
+      </c>
+      <c r="H3333" s="14">
+        <v>1</v>
+      </c>
+      <c r="I3333" s="13">
+        <v>524.87800000000004</v>
+      </c>
+    </row>
+    <row r="3334" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3334" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3334" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3334">
+        <v>4</v>
+      </c>
+      <c r="D3334">
+        <v>3</v>
+      </c>
+      <c r="E3334" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F3334">
+        <v>804.08600000000001</v>
+      </c>
+      <c r="H3334" s="15">
+        <v>2</v>
+      </c>
+      <c r="I3334" s="13">
+        <v>545.49599999999998</v>
+      </c>
+    </row>
+    <row r="3335" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3335" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3335" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3335">
+        <v>4</v>
+      </c>
+      <c r="D3335">
+        <v>4</v>
+      </c>
+      <c r="E3335" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3335">
+        <v>952.92899999999997</v>
+      </c>
+      <c r="H3335" s="15">
+        <v>3</v>
+      </c>
+      <c r="I3335" s="13">
+        <v>429.10399999999998</v>
+      </c>
+    </row>
+    <row r="3336" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3336" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3336" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3336">
+        <v>4</v>
+      </c>
+      <c r="D3336">
+        <v>4</v>
+      </c>
+      <c r="E3336" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3336">
+        <v>585.48800000000006</v>
+      </c>
+      <c r="H3336" s="15">
+        <v>4</v>
+      </c>
+      <c r="I3336" s="13">
+        <v>600.03399999999999</v>
+      </c>
+    </row>
+    <row r="3337" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3337" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3337" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3337">
+        <v>4</v>
+      </c>
+      <c r="D3337">
+        <v>4</v>
+      </c>
+      <c r="E3337" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F3337">
+        <v>677.65200000000004</v>
+      </c>
+      <c r="H3337" s="14">
+        <v>4</v>
+      </c>
+      <c r="I3337" s="13">
+        <v>566.21033333333332</v>
+      </c>
+    </row>
+    <row r="3338" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3338" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3338" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3338">
+        <v>4</v>
+      </c>
+      <c r="D3338">
+        <v>4</v>
+      </c>
+      <c r="E3338" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F3338">
+        <v>704.04700000000003</v>
+      </c>
+      <c r="H3338" s="15">
+        <v>2</v>
+      </c>
+      <c r="I3338" s="13">
+        <v>577.73400000000004</v>
+      </c>
+    </row>
+    <row r="3339" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3339" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3339" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3339">
+        <v>4</v>
+      </c>
+      <c r="D3339">
+        <v>4</v>
+      </c>
+      <c r="E3339" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F3339">
+        <v>735.30399999999997</v>
+      </c>
+      <c r="H3339" s="15">
+        <v>3</v>
+      </c>
+      <c r="I3339" s="13">
+        <v>535.40899999999999</v>
+      </c>
+    </row>
+    <row r="3340" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3340" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3340" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3340">
+        <v>1</v>
+      </c>
+      <c r="D3340">
+        <v>2</v>
+      </c>
+      <c r="E3340" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3340">
+        <v>715.03899999999999</v>
+      </c>
+      <c r="H3340" s="15">
+        <v>4</v>
+      </c>
+      <c r="I3340" s="13">
+        <v>585.48800000000006</v>
+      </c>
+    </row>
+    <row r="3341" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3341" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3341" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3341">
+        <v>1</v>
+      </c>
+      <c r="D3341">
+        <v>2</v>
+      </c>
+      <c r="E3341" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3341">
+        <v>720.32799999999997</v>
+      </c>
+      <c r="H3341" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="I3341" s="13">
+        <v>640.83566666666661</v>
+      </c>
+    </row>
+    <row r="3342" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3342" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3342" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3342">
+        <v>1</v>
+      </c>
+      <c r="D3342">
+        <v>3</v>
+      </c>
+      <c r="E3342" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3342">
+        <v>537.27800000000002</v>
+      </c>
+      <c r="H3342" s="14">
+        <v>1</v>
+      </c>
+      <c r="I3342" s="13">
+        <v>660.98500000000001</v>
+      </c>
+    </row>
+    <row r="3343" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3343" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3343" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3343">
+        <v>1</v>
+      </c>
+      <c r="D3343">
+        <v>3</v>
+      </c>
+      <c r="E3343" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3343">
+        <v>690.62400000000002</v>
+      </c>
+      <c r="H3343" s="15">
+        <v>2</v>
+      </c>
+      <c r="I3343" s="13">
+        <v>720.32799999999997</v>
+      </c>
+    </row>
+    <row r="3344" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3344" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3344" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3344">
+        <v>1</v>
+      </c>
+      <c r="D3344">
+        <v>3</v>
+      </c>
+      <c r="E3344" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F3344">
+        <v>562.851</v>
+      </c>
+      <c r="H3344" s="15">
+        <v>3</v>
+      </c>
+      <c r="I3344" s="13">
+        <v>690.62400000000002</v>
+      </c>
+    </row>
+    <row r="3345" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3345" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3345" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3345">
+        <v>1</v>
+      </c>
+      <c r="D3345">
+        <v>3</v>
+      </c>
+      <c r="E3345" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F3345">
+        <v>487.24799999999999</v>
+      </c>
+      <c r="H3345" s="15">
+        <v>4</v>
+      </c>
+      <c r="I3345" s="13">
+        <v>572.00300000000004</v>
+      </c>
+    </row>
+    <row r="3346" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3346" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3346" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3346">
+        <v>1</v>
+      </c>
+      <c r="D3346">
+        <v>3</v>
+      </c>
+      <c r="E3346" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F3346">
+        <v>545.596</v>
+      </c>
+      <c r="H3346" s="14">
+        <v>4</v>
+      </c>
+      <c r="I3346" s="13">
+        <v>620.68633333333321</v>
+      </c>
+    </row>
+    <row r="3347" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3347" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3347" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3347">
+        <v>1</v>
+      </c>
+      <c r="D3347">
+        <v>4</v>
+      </c>
+      <c r="E3347" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3347">
+        <v>578.39</v>
+      </c>
+      <c r="H3347" s="15">
+        <v>2</v>
+      </c>
+      <c r="I3347" s="13">
+        <v>703.78499999999997</v>
+      </c>
+    </row>
+    <row r="3348" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3348" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3348" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3348">
+        <v>1</v>
+      </c>
+      <c r="D3348">
+        <v>4</v>
+      </c>
+      <c r="E3348" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3348">
+        <v>572.00300000000004</v>
+      </c>
+      <c r="H3348" s="15">
+        <v>3</v>
+      </c>
+      <c r="I3348" s="13">
+        <v>637.16499999999996</v>
+      </c>
+    </row>
+    <row r="3349" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3349" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3349" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3349">
+        <v>1</v>
+      </c>
+      <c r="D3349">
+        <v>4</v>
+      </c>
+      <c r="E3349" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F3349">
+        <v>610.29899999999998</v>
+      </c>
+      <c r="H3349" s="15">
+        <v>4</v>
+      </c>
+      <c r="I3349" s="13">
+        <v>521.10900000000004</v>
+      </c>
+    </row>
+    <row r="3350" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3350" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3350" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3350">
+        <v>1</v>
+      </c>
+      <c r="D3350">
+        <v>4</v>
+      </c>
+      <c r="E3350" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F3350">
+        <v>595.16499999999996</v>
+      </c>
+      <c r="H3350" s="11" t="s">
+        <v>368</v>
+      </c>
+      <c r="I3350" s="13">
+        <v>672.83400000000006</v>
+      </c>
+    </row>
+    <row r="3351" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3351" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3351" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3351">
+        <v>1</v>
+      </c>
+      <c r="D3351">
+        <v>4</v>
+      </c>
+      <c r="E3351" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F3351">
+        <v>803.76700000000005</v>
+      </c>
+      <c r="H3351" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="I3351" s="13">
+        <v>740.42325000000005</v>
+      </c>
+    </row>
+    <row r="3352" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3352" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3352" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3352">
+        <v>4</v>
+      </c>
+      <c r="D3352">
+        <v>2</v>
+      </c>
+      <c r="E3352" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3352">
+        <v>509.21699999999998</v>
+      </c>
+      <c r="H3352" s="14">
+        <v>1</v>
+      </c>
+      <c r="I3352" s="13">
+        <v>745.16300000000001</v>
+      </c>
+    </row>
+    <row r="3353" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3353" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3353" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3353">
+        <v>4</v>
+      </c>
+      <c r="D3353">
+        <v>2</v>
+      </c>
+      <c r="E3353" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3353">
+        <v>703.78499999999997</v>
+      </c>
+      <c r="H3353" s="15">
+        <v>3</v>
+      </c>
+      <c r="I3353" s="13">
+        <v>813.93100000000004</v>
+      </c>
+    </row>
+    <row r="3354" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3354" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3354" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3354">
+        <v>4</v>
+      </c>
+      <c r="D3354">
+        <v>3</v>
+      </c>
+      <c r="E3354" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3354">
+        <v>494.59199999999998</v>
+      </c>
+      <c r="H3354" s="15">
+        <v>4</v>
+      </c>
+      <c r="I3354" s="13">
+        <v>676.39499999999998</v>
+      </c>
+    </row>
+    <row r="3355" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3355" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3355" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3355">
+        <v>4</v>
+      </c>
+      <c r="D3355">
+        <v>3</v>
+      </c>
+      <c r="E3355" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3355">
+        <v>637.16499999999996</v>
+      </c>
+      <c r="H3355" s="14">
+        <v>4</v>
+      </c>
+      <c r="I3355" s="13">
+        <v>735.68350000000009</v>
+      </c>
+    </row>
+    <row r="3356" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3356" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3356" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3356">
+        <v>4</v>
+      </c>
+      <c r="D3356">
+        <v>3</v>
+      </c>
+      <c r="E3356" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F3356">
+        <v>646.702</v>
+      </c>
+      <c r="H3356" s="15">
+        <v>3</v>
+      </c>
+      <c r="I3356" s="13">
+        <v>793.71500000000003</v>
+      </c>
+    </row>
+    <row r="3357" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3357" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3357" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3357">
+        <v>4</v>
+      </c>
+      <c r="D3357">
+        <v>3</v>
+      </c>
+      <c r="E3357" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F3357">
+        <v>568.69299999999998</v>
+      </c>
+      <c r="H3357" s="15">
+        <v>4</v>
+      </c>
+      <c r="I3357" s="13">
+        <v>677.65200000000004</v>
+      </c>
+    </row>
+    <row r="3358" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3358" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3358" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3358">
+        <v>4</v>
+      </c>
+      <c r="D3358">
+        <v>3</v>
+      </c>
+      <c r="E3358" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F3358">
+        <v>733.11099999999999</v>
+      </c>
+      <c r="H3358" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="I3358" s="13">
+        <v>605.24475000000007</v>
+      </c>
+    </row>
+    <row r="3359" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3359" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3359" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3359">
+        <v>4</v>
+      </c>
+      <c r="D3359">
+        <v>4</v>
+      </c>
+      <c r="E3359" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3359">
+        <v>620.43899999999996</v>
+      </c>
+      <c r="H3359" s="14">
+        <v>1</v>
+      </c>
+      <c r="I3359" s="13">
+        <v>586.57500000000005</v>
+      </c>
+    </row>
+    <row r="3360" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3360" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3360" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3360">
+        <v>4</v>
+      </c>
+      <c r="D3360">
+        <v>4</v>
+      </c>
+      <c r="E3360" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3360">
+        <v>521.10900000000004</v>
+      </c>
+      <c r="H3360" s="15">
+        <v>3</v>
+      </c>
+      <c r="I3360" s="13">
+        <v>562.851</v>
+      </c>
+    </row>
+    <row r="3361" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3361" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3361" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3361">
+        <v>4</v>
+      </c>
+      <c r="D3361">
+        <v>4</v>
+      </c>
+      <c r="E3361" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F3361">
+        <v>601.12699999999995</v>
+      </c>
+      <c r="H3361" s="15">
+        <v>4</v>
+      </c>
+      <c r="I3361" s="13">
+        <v>610.29899999999998</v>
+      </c>
+    </row>
+    <row r="3362" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3362" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3362" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3362">
+        <v>4</v>
+      </c>
+      <c r="D3362">
+        <v>4</v>
+      </c>
+      <c r="E3362" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F3362">
+        <v>615.70699999999999</v>
+      </c>
+      <c r="H3362" s="14">
+        <v>4</v>
+      </c>
+      <c r="I3362" s="13">
+        <v>623.91449999999998</v>
+      </c>
+    </row>
+    <row r="3363" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3363" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3363" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3363">
+        <v>4</v>
+      </c>
+      <c r="D3363">
+        <v>4</v>
+      </c>
+      <c r="E3363" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F3363">
+        <v>591.49300000000005</v>
+      </c>
+      <c r="H3363" s="15">
+        <v>3</v>
+      </c>
+      <c r="I3363" s="13">
+        <v>646.702</v>
+      </c>
+    </row>
+    <row r="3364" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3364" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3364" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3364">
+        <v>1</v>
+      </c>
+      <c r="D3364">
+        <v>2</v>
+      </c>
+      <c r="E3364" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3364">
+        <v>650.42100000000005</v>
+      </c>
+      <c r="H3364" s="15">
+        <v>4</v>
+      </c>
+      <c r="I3364" s="13">
+        <v>601.12699999999995</v>
+      </c>
+    </row>
+    <row r="3365" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3365" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3365" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3365">
+        <v>1</v>
+      </c>
+      <c r="D3365">
+        <v>2</v>
+      </c>
+      <c r="E3365" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3365">
+        <v>738.54600000000005</v>
+      </c>
+      <c r="H3365" s="11" t="s">
+        <v>369</v>
+      </c>
+      <c r="I3365" s="13">
+        <v>674.15662500000008</v>
+      </c>
+    </row>
+    <row r="3366" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3366" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3366" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3366">
+        <v>1</v>
+      </c>
+      <c r="D3366">
+        <v>3</v>
+      </c>
+      <c r="E3366" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3366">
+        <v>518.15099999999995</v>
+      </c>
+      <c r="H3366" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="I3366" s="13">
+        <v>781.61</v>
+      </c>
+    </row>
+    <row r="3367" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3367" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3367" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3367">
+        <v>1</v>
+      </c>
+      <c r="D3367">
+        <v>3</v>
+      </c>
+      <c r="E3367" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3367">
+        <v>650.68799999999999</v>
+      </c>
+      <c r="H3367" s="14">
+        <v>1</v>
+      </c>
+      <c r="I3367" s="13">
+        <v>804.03199999999993</v>
+      </c>
+    </row>
+    <row r="3368" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3368" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3368" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3368">
+        <v>1</v>
+      </c>
+      <c r="D3368">
+        <v>3</v>
+      </c>
+      <c r="E3368" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F3368">
+        <v>588.47699999999998</v>
+      </c>
+      <c r="H3368" s="15">
+        <v>3</v>
+      </c>
+      <c r="I3368" s="13">
+        <v>887.86599999999999</v>
+      </c>
+    </row>
+    <row r="3369" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3369" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3369" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3369">
+        <v>1</v>
+      </c>
+      <c r="D3369">
+        <v>3</v>
+      </c>
+      <c r="E3369" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F3369">
+        <v>632.505</v>
+      </c>
+      <c r="H3369" s="15">
+        <v>4</v>
+      </c>
+      <c r="I3369" s="13">
+        <v>720.19799999999998</v>
+      </c>
+    </row>
+    <row r="3370" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3370" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3370" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3370">
+        <v>1</v>
+      </c>
+      <c r="D3370">
+        <v>3</v>
+      </c>
+      <c r="E3370" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F3370">
+        <v>588.19299999999998</v>
+      </c>
+      <c r="H3370" s="14">
+        <v>4</v>
+      </c>
+      <c r="I3370" s="13">
+        <v>759.18799999999999</v>
+      </c>
+    </row>
+    <row r="3371" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3371" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3371" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3371">
+        <v>1</v>
+      </c>
+      <c r="D3371">
+        <v>4</v>
+      </c>
+      <c r="E3371" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3371">
+        <v>544.84500000000003</v>
+      </c>
+      <c r="H3371" s="15">
+        <v>3</v>
+      </c>
+      <c r="I3371" s="13">
+        <v>814.32899999999995</v>
+      </c>
+    </row>
+    <row r="3372" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3372" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3372" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3372">
+        <v>1</v>
+      </c>
+      <c r="D3372">
+        <v>4</v>
+      </c>
+      <c r="E3372" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3372">
+        <v>592.42399999999998</v>
+      </c>
+      <c r="H3372" s="15">
+        <v>4</v>
+      </c>
+      <c r="I3372" s="13">
+        <v>704.04700000000003</v>
+      </c>
+    </row>
+    <row r="3373" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3373" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3373" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3373">
+        <v>1</v>
+      </c>
+      <c r="D3373">
+        <v>4</v>
+      </c>
+      <c r="E3373" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F3373">
+        <v>613.19200000000001</v>
+      </c>
+      <c r="H3373" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="I3373" s="13">
+        <v>566.70325000000003</v>
+      </c>
+    </row>
+    <row r="3374" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3374" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3374" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3374">
+        <v>1</v>
+      </c>
+      <c r="D3374">
+        <v>4</v>
+      </c>
+      <c r="E3374" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F3374">
+        <v>586.76199999999994</v>
+      </c>
+      <c r="H3374" s="14">
+        <v>1</v>
+      </c>
+      <c r="I3374" s="13">
+        <v>541.20650000000001</v>
+      </c>
+    </row>
+    <row r="3375" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3375" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3375" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3375">
+        <v>1</v>
+      </c>
+      <c r="D3375">
+        <v>4</v>
+      </c>
+      <c r="E3375" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F3375">
+        <v>540.303</v>
+      </c>
+      <c r="H3375" s="15">
+        <v>3</v>
+      </c>
+      <c r="I3375" s="13">
+        <v>487.24799999999999</v>
+      </c>
+    </row>
+    <row r="3376" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3376" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3376" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3376">
+        <v>4</v>
+      </c>
+      <c r="D3376">
+        <v>2</v>
+      </c>
+      <c r="E3376" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3376">
+        <v>574.24199999999996</v>
+      </c>
+      <c r="H3376" s="15">
+        <v>4</v>
+      </c>
+      <c r="I3376" s="13">
+        <v>595.16499999999996</v>
+      </c>
+    </row>
+    <row r="3377" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3377" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3377" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3377">
+        <v>4</v>
+      </c>
+      <c r="D3377">
+        <v>2</v>
+      </c>
+      <c r="E3377" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3377">
+        <v>597.24199999999996</v>
+      </c>
+      <c r="H3377" s="14">
+        <v>4</v>
+      </c>
+      <c r="I3377" s="13">
+        <v>592.20000000000005</v>
+      </c>
+    </row>
+    <row r="3378" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3378" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3378" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3378">
+        <v>4</v>
+      </c>
+      <c r="D3378">
+        <v>3</v>
+      </c>
+      <c r="E3378" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3378">
+        <v>503.51499999999999</v>
+      </c>
+      <c r="H3378" s="15">
+        <v>3</v>
+      </c>
+      <c r="I3378" s="13">
+        <v>568.69299999999998</v>
+      </c>
+    </row>
+    <row r="3379" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3379" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3379" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3379">
+        <v>4</v>
+      </c>
+      <c r="D3379">
+        <v>3</v>
+      </c>
+      <c r="E3379" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3379">
+        <v>523.96199999999999</v>
+      </c>
+      <c r="H3379" s="15">
+        <v>4</v>
+      </c>
+      <c r="I3379" s="13">
+        <v>615.70699999999999</v>
+      </c>
+    </row>
+    <row r="3380" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3380" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3380" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3380">
+        <v>4</v>
+      </c>
+      <c r="D3380">
+        <v>3</v>
+      </c>
+      <c r="E3380" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F3380">
+        <v>505.15699999999998</v>
+      </c>
+      <c r="H3380" s="11" t="s">
+        <v>370</v>
+      </c>
+      <c r="I3380" s="13">
+        <v>733.35362500000008</v>
+      </c>
+    </row>
+    <row r="3381" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3381" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3381" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3381">
+        <v>4</v>
+      </c>
+      <c r="D3381">
+        <v>3</v>
+      </c>
+      <c r="E3381" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F3381">
+        <v>510.68099999999998</v>
+      </c>
+      <c r="H3381" s="12" t="s">
+        <v>364</v>
+      </c>
+      <c r="I3381" s="13">
+        <v>798.21550000000002</v>
+      </c>
+    </row>
+    <row r="3382" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3382" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3382" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3382">
+        <v>4</v>
+      </c>
+      <c r="D3382">
+        <v>3</v>
+      </c>
+      <c r="E3382" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F3382">
+        <v>557.03899999999999</v>
+      </c>
+      <c r="H3382" s="14">
+        <v>1</v>
+      </c>
+      <c r="I3382" s="13">
+        <v>826.73599999999999</v>
+      </c>
+    </row>
+    <row r="3383" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3383" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3383" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3383">
+        <v>4</v>
+      </c>
+      <c r="D3383">
+        <v>4</v>
+      </c>
+      <c r="E3383" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3383">
+        <v>597.48199999999997</v>
+      </c>
+      <c r="H3383" s="15">
+        <v>3</v>
+      </c>
+      <c r="I3383" s="13">
+        <v>856.48299999999995</v>
+      </c>
+    </row>
+    <row r="3384" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3384" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3384" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3384">
+        <v>4</v>
+      </c>
+      <c r="D3384">
+        <v>4</v>
+      </c>
+      <c r="E3384" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3384">
+        <v>512.44399999999996</v>
+      </c>
+      <c r="H3384" s="15">
+        <v>4</v>
+      </c>
+      <c r="I3384" s="13">
+        <v>796.98900000000003</v>
+      </c>
+    </row>
+    <row r="3385" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3385" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3385" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3385">
+        <v>4</v>
+      </c>
+      <c r="D3385">
+        <v>4</v>
+      </c>
+      <c r="E3385" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F3385">
+        <v>549.63400000000001</v>
+      </c>
+      <c r="H3385" s="14">
+        <v>4</v>
+      </c>
+      <c r="I3385" s="13">
+        <v>769.69499999999994</v>
+      </c>
+    </row>
+    <row r="3386" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3386" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3386" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3386">
+        <v>4</v>
+      </c>
+      <c r="D3386">
+        <v>4</v>
+      </c>
+      <c r="E3386" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F3386">
+        <v>747.58</v>
+      </c>
+      <c r="H3386" s="15">
+        <v>3</v>
+      </c>
+      <c r="I3386" s="13">
+        <v>804.08600000000001</v>
+      </c>
+    </row>
+    <row r="3387" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3387" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3387" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3387">
+        <v>4</v>
+      </c>
+      <c r="D3387">
+        <v>4</v>
+      </c>
+      <c r="E3387" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F3387">
+        <v>730.34500000000003</v>
+      </c>
+      <c r="H3387" s="15">
+        <v>4</v>
+      </c>
+      <c r="I3387" s="13">
+        <v>735.30399999999997</v>
+      </c>
+    </row>
+    <row r="3388" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="H3388" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="I3388" s="13">
+        <v>668.49175000000002</v>
+      </c>
+    </row>
+    <row r="3389" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3389" s="6" t="s">
+        <v>363</v>
+      </c>
+      <c r="B3389" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="C3389" s="6" t="s">
+        <v>375</v>
+      </c>
+      <c r="D3389" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="E3389" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="F3389" s="6" t="s">
+        <v>135</v>
+      </c>
+      <c r="H3389" s="14">
+        <v>1</v>
+      </c>
+      <c r="I3389" s="13">
+        <v>674.68150000000003</v>
+      </c>
+    </row>
+    <row r="3390" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3390" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3390" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3390" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3390" s="6">
+        <v>2</v>
+      </c>
+      <c r="E3390" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3390" s="6">
+        <v>1442.175</v>
+      </c>
+      <c r="H3390" s="15">
+        <v>3</v>
+      </c>
+      <c r="I3390" s="13">
+        <v>545.596</v>
+      </c>
+    </row>
+    <row r="3391" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3391" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3391" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3391" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3391" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3391" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3391" s="6">
+        <v>1055.251</v>
+      </c>
+      <c r="H3391" s="15">
+        <v>4</v>
+      </c>
+      <c r="I3391" s="13">
+        <v>803.76700000000005</v>
+      </c>
+    </row>
+    <row r="3392" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3392" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3392" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3392" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3392" s="6">
+        <v>4</v>
+      </c>
+      <c r="E3392" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3392" s="6">
+        <v>868.56</v>
+      </c>
+      <c r="H3392" s="14">
+        <v>4</v>
+      </c>
+      <c r="I3392" s="13">
+        <v>662.30200000000002</v>
+      </c>
+    </row>
+    <row r="3393" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3393" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3393" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3393" s="6">
+        <v>4</v>
+      </c>
+      <c r="D3393" s="6">
+        <v>2</v>
+      </c>
+      <c r="E3393" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3393" s="6">
+        <v>1486.4349999999999</v>
+      </c>
+      <c r="H3393" s="15">
+        <v>3</v>
+      </c>
+      <c r="I3393" s="13">
+        <v>733.11099999999999</v>
+      </c>
+    </row>
+    <row r="3394" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3394" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3394" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3394" s="6">
+        <v>4</v>
+      </c>
+      <c r="D3394" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3394" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3394" s="6">
+        <v>1056.105</v>
+      </c>
+      <c r="H3394" s="15">
+        <v>4</v>
+      </c>
+      <c r="I3394" s="13">
+        <v>591.49300000000005</v>
+      </c>
+    </row>
+    <row r="3395" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3395" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3395" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3395" s="6">
+        <v>4</v>
+      </c>
+      <c r="D3395" s="6">
+        <v>4</v>
+      </c>
+      <c r="E3395" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3395" s="6">
+        <v>952.92899999999997</v>
+      </c>
+      <c r="H3395" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="I3395" s="13">
+        <v>1057.3297499999999</v>
+      </c>
+    </row>
+    <row r="3396" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3396" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3396" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3396" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3396" s="6">
+        <v>2</v>
+      </c>
+      <c r="E3396" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3396" s="6">
+        <v>715.03899999999999</v>
+      </c>
+      <c r="H3396" s="12">
+        <v>1825</v>
+      </c>
+      <c r="I3396" s="13">
+        <v>1384.346</v>
+      </c>
+    </row>
+    <row r="3397" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3397" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3397" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3397" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3397" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3397" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3397" s="6">
+        <v>537.27800000000002</v>
+      </c>
+      <c r="H3397" s="14">
+        <v>1</v>
+      </c>
+      <c r="I3397" s="13">
+        <v>1384.346</v>
+      </c>
+    </row>
+    <row r="3398" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3398" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3398" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3398" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3398" s="6">
+        <v>4</v>
+      </c>
+      <c r="E3398" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3398" s="6">
+        <v>578.39</v>
+      </c>
+      <c r="H3398" s="15">
+        <v>1</v>
+      </c>
+      <c r="I3398" s="13">
+        <v>1384.346</v>
+      </c>
+    </row>
+    <row r="3399" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3399" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3399" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3399" s="6">
+        <v>4</v>
+      </c>
+      <c r="D3399" s="6">
+        <v>2</v>
+      </c>
+      <c r="E3399" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3399" s="6">
+        <v>509.21699999999998</v>
+      </c>
+      <c r="H3399" s="12">
+        <v>2802</v>
+      </c>
+      <c r="I3399" s="13">
+        <v>450.875</v>
+      </c>
+    </row>
+    <row r="3400" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3400" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3400" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3400" s="6">
+        <v>4</v>
+      </c>
+      <c r="D3400" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3400" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3400" s="6">
+        <v>494.59199999999998</v>
+      </c>
+      <c r="H3400" s="14">
+        <v>1</v>
+      </c>
+      <c r="I3400" s="13">
+        <v>450.875</v>
+      </c>
+    </row>
+    <row r="3401" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3401" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3401" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3401" s="6">
+        <v>4</v>
+      </c>
+      <c r="D3401" s="6">
+        <v>4</v>
+      </c>
+      <c r="E3401" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3401" s="6">
+        <v>620.43899999999996</v>
+      </c>
+      <c r="H3401" s="15">
+        <v>1</v>
+      </c>
+      <c r="I3401" s="13">
+        <v>450.875</v>
+      </c>
+    </row>
+    <row r="3402" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3402" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3402" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3402" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3402" s="6">
+        <v>2</v>
+      </c>
+      <c r="E3402" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3402" s="6">
+        <v>650.42100000000005</v>
+      </c>
+      <c r="H3402" s="12" t="s">
+        <v>371</v>
+      </c>
+      <c r="I3402" s="13">
+        <v>1254.444</v>
+      </c>
+    </row>
+    <row r="3403" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3403" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3403" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3403" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3403" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3403" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3403" s="6">
+        <v>518.15099999999995</v>
+      </c>
+      <c r="H3403" s="14">
+        <v>1</v>
+      </c>
+      <c r="I3403" s="13">
+        <v>1254.444</v>
+      </c>
+    </row>
+    <row r="3404" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3404" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3404" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3404" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3404" s="6">
+        <v>4</v>
+      </c>
+      <c r="E3404" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3404" s="6">
+        <v>544.84500000000003</v>
+      </c>
+      <c r="H3404" s="15">
+        <v>1</v>
+      </c>
+      <c r="I3404" s="13">
+        <v>1254.444</v>
+      </c>
+    </row>
+    <row r="3405" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3405" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3405" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3405" s="6">
+        <v>4</v>
+      </c>
+      <c r="D3405" s="6">
+        <v>2</v>
+      </c>
+      <c r="E3405" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3405" s="6">
+        <v>574.24199999999996</v>
+      </c>
+      <c r="H3405" s="12" t="s">
+        <v>373</v>
+      </c>
+      <c r="I3405" s="13">
+        <v>1139.654</v>
+      </c>
+    </row>
+    <row r="3406" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3406" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3406" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3406" s="6">
+        <v>4</v>
+      </c>
+      <c r="D3406" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3406" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3406" s="6">
+        <v>503.51499999999999</v>
+      </c>
+      <c r="H3406" s="14">
+        <v>1</v>
+      </c>
+      <c r="I3406" s="13">
+        <v>1139.654</v>
+      </c>
+    </row>
+    <row r="3407" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3407" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3407" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3407" s="6">
+        <v>4</v>
+      </c>
+      <c r="D3407" s="6">
+        <v>4</v>
+      </c>
+      <c r="E3407" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="F3407" s="6">
+        <v>597.48199999999997</v>
+      </c>
+      <c r="H3407" s="15">
+        <v>1</v>
+      </c>
+      <c r="I3407" s="13">
+        <v>1139.654</v>
+      </c>
+    </row>
+    <row r="3408" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A3408" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3408" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3408" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3408" s="6">
+        <v>2</v>
+      </c>
+      <c r="E3408" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3408" s="6">
+        <v>545.49599999999998</v>
+      </c>
+      <c r="H3408" s="11" t="s">
+        <v>379</v>
+      </c>
+      <c r="I3408" s="13">
+        <v>736.66849999999999</v>
+      </c>
+    </row>
+    <row r="3409" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3409" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3409" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3409" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3409" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3409" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3409" s="6">
+        <v>429.10399999999998</v>
+      </c>
+    </row>
+    <row r="3410" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3410" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3410" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3410" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3410" s="6">
+        <v>4</v>
+      </c>
+      <c r="E3410" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3410" s="6">
+        <v>600.03399999999999</v>
+      </c>
+    </row>
+    <row r="3411" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3411" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3411" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3411" s="6">
+        <v>4</v>
+      </c>
+      <c r="D3411" s="6">
+        <v>2</v>
+      </c>
+      <c r="E3411" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3411" s="6">
+        <v>577.73400000000004</v>
+      </c>
+    </row>
+    <row r="3412" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3412" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3412" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3412" s="6">
+        <v>4</v>
+      </c>
+      <c r="D3412" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3412" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3412" s="6">
+        <v>535.40899999999999</v>
+      </c>
+    </row>
+    <row r="3413" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3413" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3413" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3413" s="6">
+        <v>4</v>
+      </c>
+      <c r="D3413" s="6">
+        <v>4</v>
+      </c>
+      <c r="E3413" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3413" s="6">
+        <v>585.48800000000006</v>
+      </c>
+    </row>
+    <row r="3414" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3414" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3414" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3414" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3414" s="6">
+        <v>2</v>
+      </c>
+      <c r="E3414" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3414" s="6">
+        <v>720.32799999999997</v>
+      </c>
+    </row>
+    <row r="3415" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3415" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3415" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3415" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3415" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3415" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3415" s="6">
+        <v>690.62400000000002</v>
+      </c>
+    </row>
+    <row r="3416" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3416" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3416" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3416" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3416" s="6">
+        <v>4</v>
+      </c>
+      <c r="E3416" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3416" s="6">
+        <v>572.00300000000004</v>
+      </c>
+    </row>
+    <row r="3417" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3417" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3417" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3417" s="6">
+        <v>4</v>
+      </c>
+      <c r="D3417" s="6">
+        <v>2</v>
+      </c>
+      <c r="E3417" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3417" s="6">
+        <v>703.78499999999997</v>
+      </c>
+    </row>
+    <row r="3418" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3418" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3418" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3418" s="6">
+        <v>4</v>
+      </c>
+      <c r="D3418" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3418" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3418" s="6">
+        <v>637.16499999999996</v>
+      </c>
+    </row>
+    <row r="3419" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3419" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3419" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3419" s="6">
+        <v>4</v>
+      </c>
+      <c r="D3419" s="6">
+        <v>4</v>
+      </c>
+      <c r="E3419" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3419" s="6">
+        <v>521.10900000000004</v>
+      </c>
+    </row>
+    <row r="3420" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3420" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3420" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3420" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3420" s="6">
+        <v>2</v>
+      </c>
+      <c r="E3420" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3420" s="6">
+        <v>738.54600000000005</v>
+      </c>
+    </row>
+    <row r="3421" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3421" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3421" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3421" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3421" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3421" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3421" s="6">
+        <v>650.68799999999999</v>
+      </c>
+    </row>
+    <row r="3422" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3422" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3422" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3422" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3422" s="6">
+        <v>4</v>
+      </c>
+      <c r="E3422" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3422" s="6">
+        <v>592.42399999999998</v>
+      </c>
+    </row>
+    <row r="3423" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3423" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3423" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3423" s="6">
+        <v>4</v>
+      </c>
+      <c r="D3423" s="6">
+        <v>2</v>
+      </c>
+      <c r="E3423" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3423" s="6">
+        <v>597.24199999999996</v>
+      </c>
+    </row>
+    <row r="3424" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3424" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3424" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3424" s="6">
+        <v>4</v>
+      </c>
+      <c r="D3424" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3424" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3424" s="6">
+        <v>523.96199999999999</v>
+      </c>
+    </row>
+    <row r="3425" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3425" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3425" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3425" s="6">
+        <v>4</v>
+      </c>
+      <c r="D3425" s="6">
+        <v>4</v>
+      </c>
+      <c r="E3425" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="F3425" s="6">
+        <v>512.44399999999996</v>
+      </c>
+    </row>
+    <row r="3426" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3426" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3426" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3426" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3426" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3426" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F3426" s="6">
+        <v>813.93100000000004</v>
+      </c>
+    </row>
+    <row r="3427" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3427" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3427" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3427" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3427" s="6">
+        <v>4</v>
+      </c>
+      <c r="E3427" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F3427" s="6">
+        <v>676.39499999999998</v>
+      </c>
+    </row>
+    <row r="3428" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3428" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3428" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3428" s="6">
+        <v>4</v>
+      </c>
+      <c r="D3428" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3428" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F3428" s="6">
+        <v>793.71500000000003</v>
+      </c>
+    </row>
+    <row r="3429" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3429" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3429" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3429" s="6">
+        <v>4</v>
+      </c>
+      <c r="D3429" s="6">
+        <v>4</v>
+      </c>
+      <c r="E3429" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F3429" s="6">
+        <v>677.65200000000004</v>
+      </c>
+    </row>
+    <row r="3430" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3430" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3430" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3430" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3430" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3430" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F3430" s="6">
+        <v>562.851</v>
+      </c>
+    </row>
+    <row r="3431" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3431" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3431" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3431" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3431" s="6">
+        <v>4</v>
+      </c>
+      <c r="E3431" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F3431" s="6">
+        <v>610.29899999999998</v>
+      </c>
+    </row>
+    <row r="3432" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3432" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3432" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3432" s="6">
+        <v>4</v>
+      </c>
+      <c r="D3432" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3432" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F3432" s="6">
+        <v>646.702</v>
+      </c>
+    </row>
+    <row r="3433" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3433" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3433" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3433" s="6">
+        <v>4</v>
+      </c>
+      <c r="D3433" s="6">
+        <v>4</v>
+      </c>
+      <c r="E3433" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F3433" s="6">
+        <v>601.12699999999995</v>
+      </c>
+    </row>
+    <row r="3434" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3434" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3434" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3434" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3434" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3434" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F3434" s="6">
+        <v>588.47699999999998</v>
+      </c>
+    </row>
+    <row r="3435" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3435" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3435" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3435" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3435" s="6">
+        <v>4</v>
+      </c>
+      <c r="E3435" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F3435" s="6">
+        <v>613.19200000000001</v>
+      </c>
+    </row>
+    <row r="3436" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3436" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3436" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3436" s="6">
+        <v>4</v>
+      </c>
+      <c r="D3436" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3436" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F3436" s="6">
+        <v>505.15699999999998</v>
+      </c>
+    </row>
+    <row r="3437" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3437" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3437" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3437" s="6">
+        <v>4</v>
+      </c>
+      <c r="D3437" s="6">
+        <v>4</v>
+      </c>
+      <c r="E3437" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="F3437" s="6">
+        <v>549.63400000000001</v>
+      </c>
+    </row>
+    <row r="3438" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3438" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3438" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3438" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3438" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3438" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F3438" s="6">
+        <v>887.86599999999999</v>
+      </c>
+    </row>
+    <row r="3439" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3439" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3439" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3439" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3439" s="6">
+        <v>4</v>
+      </c>
+      <c r="E3439" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F3439" s="6">
+        <v>720.19799999999998</v>
+      </c>
+    </row>
+    <row r="3440" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3440" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3440" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3440" s="6">
+        <v>4</v>
+      </c>
+      <c r="D3440" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3440" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F3440" s="6">
+        <v>814.32899999999995</v>
+      </c>
+    </row>
+    <row r="3441" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3441" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3441" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3441" s="6">
+        <v>4</v>
+      </c>
+      <c r="D3441" s="6">
+        <v>4</v>
+      </c>
+      <c r="E3441" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F3441" s="6">
+        <v>704.04700000000003</v>
+      </c>
+    </row>
+    <row r="3442" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3442" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3442" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3442" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3442" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3442" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F3442" s="6">
+        <v>487.24799999999999</v>
+      </c>
+    </row>
+    <row r="3443" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3443" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3443" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3443" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3443" s="6">
+        <v>4</v>
+      </c>
+      <c r="E3443" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F3443" s="6">
+        <v>595.16499999999996</v>
+      </c>
+    </row>
+    <row r="3444" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3444" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3444" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3444" s="6">
+        <v>4</v>
+      </c>
+      <c r="D3444" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3444" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F3444" s="6">
+        <v>568.69299999999998</v>
+      </c>
+    </row>
+    <row r="3445" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3445" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3445" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3445" s="6">
+        <v>4</v>
+      </c>
+      <c r="D3445" s="6">
+        <v>4</v>
+      </c>
+      <c r="E3445" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F3445" s="6">
+        <v>615.70699999999999</v>
+      </c>
+    </row>
+    <row r="3446" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3446" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3446" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3446" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3446" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3446" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F3446" s="6">
+        <v>632.505</v>
+      </c>
+    </row>
+    <row r="3447" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3447" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3447" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3447" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3447" s="6">
+        <v>4</v>
+      </c>
+      <c r="E3447" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F3447" s="6">
+        <v>586.76199999999994</v>
+      </c>
+    </row>
+    <row r="3448" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3448" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3448" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3448" s="6">
+        <v>4</v>
+      </c>
+      <c r="D3448" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3448" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F3448" s="6">
+        <v>510.68099999999998</v>
+      </c>
+    </row>
+    <row r="3449" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3449" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3449" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3449" s="6">
+        <v>4</v>
+      </c>
+      <c r="D3449" s="6">
+        <v>4</v>
+      </c>
+      <c r="E3449" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="F3449" s="6">
+        <v>747.58</v>
+      </c>
+    </row>
+    <row r="3450" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3450" s="7">
+        <v>1825</v>
+      </c>
+      <c r="B3450" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3450" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3450" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3450" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="F3450" s="6">
+        <v>1384.346</v>
+      </c>
+    </row>
+    <row r="3451" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3451" s="7">
+        <v>2802</v>
+      </c>
+      <c r="B3451" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3451" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3451" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3451" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="F3451" s="6">
+        <v>450.875</v>
+      </c>
+    </row>
+    <row r="3452" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3452" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3452" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3452" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3452" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3452" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="F3452" s="6">
+        <v>1254.444</v>
+      </c>
+    </row>
+    <row r="3453" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3453" s="7" t="s">
+        <v>373</v>
+      </c>
+      <c r="B3453" s="6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C3453" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3453" s="6">
+        <v>1</v>
+      </c>
+      <c r="E3453" s="6" t="s">
+        <v>381</v>
+      </c>
+      <c r="F3453" s="6">
+        <v>1139.654</v>
+      </c>
+    </row>
+    <row r="3454" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3454" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3454" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3454" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3454" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3454" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F3454" s="6">
+        <v>856.48299999999995</v>
+      </c>
+    </row>
+    <row r="3455" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3455" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3455" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3455" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3455" s="6">
+        <v>4</v>
+      </c>
+      <c r="E3455" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F3455" s="6">
+        <v>796.98900000000003</v>
+      </c>
+    </row>
+    <row r="3456" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3456" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3456" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3456" s="6">
+        <v>4</v>
+      </c>
+      <c r="D3456" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3456" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F3456" s="6">
+        <v>804.08600000000001</v>
+      </c>
+    </row>
+    <row r="3457" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3457" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B3457" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3457" s="6">
+        <v>4</v>
+      </c>
+      <c r="D3457" s="6">
+        <v>4</v>
+      </c>
+      <c r="E3457" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F3457" s="6">
+        <v>735.30399999999997</v>
+      </c>
+    </row>
+    <row r="3458" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3458" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3458" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3458" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3458" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3458" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F3458" s="6">
+        <v>545.596</v>
+      </c>
+    </row>
+    <row r="3459" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3459" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3459" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3459" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3459" s="6">
+        <v>4</v>
+      </c>
+      <c r="E3459" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F3459" s="6">
+        <v>803.76700000000005</v>
+      </c>
+    </row>
+    <row r="3460" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3460" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3460" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3460" s="6">
+        <v>4</v>
+      </c>
+      <c r="D3460" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3460" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F3460" s="6">
+        <v>733.11099999999999</v>
+      </c>
+    </row>
+    <row r="3461" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3461" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3461" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="C3461" s="6">
+        <v>4</v>
+      </c>
+      <c r="D3461" s="6">
+        <v>4</v>
+      </c>
+      <c r="E3461" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F3461" s="6">
+        <v>591.49300000000005</v>
+      </c>
+    </row>
+    <row r="3462" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3462" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3462" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3462" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3462" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3462" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F3462" s="6">
+        <v>588.19299999999998</v>
+      </c>
+    </row>
+    <row r="3463" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3463" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3463" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3463" s="6">
+        <v>1</v>
+      </c>
+      <c r="D3463" s="6">
+        <v>4</v>
+      </c>
+      <c r="E3463" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F3463" s="6">
+        <v>540.303</v>
+      </c>
+    </row>
+    <row r="3464" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3464" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3464" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3464" s="6">
+        <v>4</v>
+      </c>
+      <c r="D3464" s="6">
+        <v>3</v>
+      </c>
+      <c r="E3464" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F3464" s="6">
+        <v>557.03899999999999</v>
+      </c>
+    </row>
+    <row r="3465" spans="1:6" x14ac:dyDescent="0.45">
+      <c r="A3465" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="B3465" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="C3465" s="6">
+        <v>4</v>
+      </c>
+      <c r="D3465" s="6">
+        <v>4</v>
+      </c>
+      <c r="E3465" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="F3465" s="6">
+        <v>730.34500000000003</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -59402,10 +64227,14 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <ignoredErrors>
+    <ignoredError sqref="A3316:A3387" numberStoredAsText="1"/>
+  </ignoredErrors>
+  <drawing r:id="rId3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
--- a/results.xlsx
+++ b/results.xlsx
@@ -2,13 +2,13 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23001"/>
-  <workbookPr hidePivotFieldList="1" defaultThemeVersion="166925"/>
+  <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\User\Documents\University\2020\Repositories\edgesum\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8315A608-A877-4AE5-AEFF-8564569E6818}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2E67812-0BD5-4FC1-87C7-A346B173A816}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="28996" windowHeight="15796" xr2:uid="{C9E8864D-5F17-466A-B1FF-8AA41EB8F054}"/>
   </bookViews>
@@ -16,6 +16,9 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <pivotCaches>
+    <pivotCache cacheId="0" r:id="rId2"/>
+  </pivotCaches>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -33,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4085" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4213" uniqueCount="389">
   <si>
     <t>Name</t>
   </si>
@@ -1183,6 +1186,24 @@
   <si>
     <t xml:space="preserve">0:09:57.190	</t>
   </si>
+  <si>
+    <t>Average upload time (s)</t>
+  </si>
+  <si>
+    <t>Average length (s)</t>
+  </si>
+  <si>
+    <t>Average filesize (MB)</t>
+  </si>
+  <si>
+    <t>Row Labels</t>
+  </si>
+  <si>
+    <t>Grand Total</t>
+  </si>
+  <si>
+    <t>Average of Actual time (s)</t>
+  </si>
 </sst>
 </file>
 
@@ -1228,7 +1249,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -1240,6 +1261,14 @@
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" pivotButton="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -2060,38 +2089,6 @@
   </mc:AlternateContent>
   <c:chart>
     <c:title>
-      <c:tx>
-        <c:rich>
-          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0">
-                <a:effectLst/>
-              </a:rPr>
-              <a:t>Upload time (s)</a:t>
-            </a:r>
-            <a:r>
-              <a:rPr lang="en-AU" sz="1400" b="0" i="0" u="none" strike="noStrike" baseline="0"/>
-              <a:t> </a:t>
-            </a:r>
-            <a:endParaRPr lang="en-AU"/>
-          </a:p>
-        </c:rich>
-      </c:tx>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -2131,6 +2128,17 @@
         <c:ser>
           <c:idx val="0"/>
           <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Average upload time (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
           <c:spPr>
             <a:solidFill>
               <a:schemeClr val="accent1"/>
@@ -2141,9 +2149,26 @@
             <a:effectLst/>
           </c:spPr>
           <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$29:$E$31</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Unsummarised</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Summarised (1 Segment)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Summarised (4 Segments)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>(Sheet1!$E$24,Sheet1!$H$24,Sheet1!$K$24)</c:f>
+              <c:f>Sheet1!$H$29:$H$31</c:f>
               <c:numCache>
                 <c:formatCode>0.000</c:formatCode>
                 <c:ptCount val="3"/>
@@ -2161,7 +2186,7 @@
           </c:val>
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-CF83-49A9-9D57-F49D731A37C2}"/>
+              <c16:uniqueId val="{00000000-A90B-4D9B-9D9A-314DCF35907D}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -2175,11 +2200,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="519053832"/>
-        <c:axId val="517824448"/>
+        <c:axId val="626945088"/>
+        <c:axId val="626949352"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="519053832"/>
+        <c:axId val="626945088"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2222,7 +2247,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="517824448"/>
+        <c:crossAx val="626949352"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2230,7 +2255,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="517824448"/>
+        <c:axId val="626949352"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2281,7 +2306,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="519053832"/>
+        <c:crossAx val="626945088"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2337,6 +2362,1015 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Unsummarised</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$34:$E$36</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Average filesize (MB)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Average length (s)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Average upload time (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$34:$F$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>69.989999999999995</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>60.067</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000">
+                  <c:v>32.769736842105303</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-E138-45A9-95FB-FBE783A5DBF2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$G$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Summarised (1 Segment)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$34:$E$36</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Average filesize (MB)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Average length (s)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Average upload time (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$G$34:$G$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>12.548</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>20.884</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000">
+                  <c:v>6.4831538461538454</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-E138-45A9-95FB-FBE783A5DBF2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$33</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Summarised (4 Segments)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent3"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$E$34:$E$36</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>Average filesize (MB)</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>Average length (s)</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>Average upload time (s)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$34:$H$36</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>11.54</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.067</c:v>
+                </c:pt>
+                <c:pt idx="2" formatCode="0.000">
+                  <c:v>6.2246923076923073</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E138-45A9-95FB-FBE783A5DBF2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="548940144"/>
+        <c:axId val="548945392"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="548940144"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="548945392"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="548945392"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="548940144"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:pivotSource>
+    <c:name>[results.xlsx]Sheet1!PivotTable4</c:name>
+    <c:fmtId val="0"/>
+  </c:pivotSource>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:pivotFmts>
+      <c:pivotFmt>
+        <c:idx val="0"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="1"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+      <c:pivotFmt>
+        <c:idx val="2"/>
+        <c:spPr>
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:marker>
+          <c:symbol val="none"/>
+        </c:marker>
+        <c:dLbl>
+          <c:idx val="0"/>
+          <c:spPr>
+            <a:noFill/>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:txPr>
+            <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" lIns="38100" tIns="19050" rIns="38100" bIns="19050" anchor="ctr" anchorCtr="1">
+              <a:spAutoFit/>
+            </a:bodyPr>
+            <a:lstStyle/>
+            <a:p>
+              <a:pPr>
+                <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                  <a:solidFill>
+                    <a:schemeClr val="tx1">
+                      <a:lumMod val="75000"/>
+                      <a:lumOff val="25000"/>
+                    </a:schemeClr>
+                  </a:solidFill>
+                  <a:latin typeface="+mn-lt"/>
+                  <a:ea typeface="+mn-ea"/>
+                  <a:cs typeface="+mn-cs"/>
+                </a:defRPr>
+              </a:pPr>
+              <a:endParaRPr lang="en-US"/>
+            </a:p>
+          </c:txPr>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{CE6537A1-D6FC-4f65-9D91-7224C49458BB}"/>
+          </c:extLst>
+        </c:dLbl>
+      </c:pivotFmt>
+    </c:pivotFmts>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$2375</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Total</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:multiLvlStrRef>
+              <c:f>Sheet1!$G$2376:$G$2390</c:f>
+              <c:multiLvlStrCache>
+                <c:ptCount val="10"/>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="2">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="3">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="4">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>1</c:v>
+                  </c:pt>
+                  <c:pt idx="6">
+                    <c:v>2</c:v>
+                  </c:pt>
+                  <c:pt idx="7">
+                    <c:v>3</c:v>
+                  </c:pt>
+                  <c:pt idx="8">
+                    <c:v>4</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>1</c:v>
+                  </c:pt>
+                </c:lvl>
+                <c:lvl>
+                  <c:pt idx="0">
+                    <c:v>1825</c:v>
+                  </c:pt>
+                  <c:pt idx="1">
+                    <c:v>2802</c:v>
+                  </c:pt>
+                  <c:pt idx="5">
+                    <c:v>34d8</c:v>
+                  </c:pt>
+                  <c:pt idx="9">
+                    <c:v>9c8f</c:v>
+                  </c:pt>
+                </c:lvl>
+              </c:multiLvlStrCache>
+            </c:multiLvlStrRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2376:$H$2390</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="10"/>
+                <c:pt idx="0">
+                  <c:v>1384.346</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>450.875</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1012.9599999999999</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>804.62789999999995</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>731.75959999999998</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1254.444</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>662.09224999999992</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>590.38600000000008</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>612.82990000000007</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1139.654</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-3AB0-46DE-B223-F688B41C78DF}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="219"/>
+        <c:overlap val="-27"/>
+        <c:axId val="463250328"/>
+        <c:axId val="463252624"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="463250328"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="463252624"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="463252624"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="463250328"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:extLst>
+    <c:ext xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" uri="{781A3756-C4B2-4CAC-9D66-4F8BD8637D16}">
+      <c14:pivotOptions>
+        <c14:dropZoneFilter val="1"/>
+        <c14:dropZoneCategories val="1"/>
+        <c14:dropZoneData val="1"/>
+        <c14:dropZoneSeries val="1"/>
+        <c14:dropZonesVisible val="1"/>
+      </c14:pivotOptions>
+    </c:ext>
+    <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{E28EC0CA-F0BB-4C9C-879D-F8772B89E7AC}">
+      <c16:pivotOptions16>
+        <c16:showExpandCollapseFieldButtons val="1"/>
+      </c16:pivotOptions16>
+    </c:ext>
+  </c:extLst>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -2378,6 +3412,86 @@
 </file>
 
 <file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors4.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -3425,6 +4539,1012 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style4.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="201">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -3467,23 +5587,23 @@
   </xdr:twoCellAnchor>
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>747993</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>141194</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>1084169</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>40341</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>8</xdr:col>
-      <xdr:colOff>479052</xdr:colOff>
-      <xdr:row>43</xdr:row>
-      <xdr:rowOff>15688</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>1199030</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>168088</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="3" name="Chart 2">
+        <xdr:cNvPr id="2" name="Chart 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{596F0AAF-7082-430B-99CD-7C7B747508F3}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{51590719-0186-4E69-A753-DE4D1D64DDD4}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -3501,7 +5621,622 @@
     </xdr:graphicFrame>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>294155</xdr:colOff>
+      <xdr:row>29</xdr:row>
+      <xdr:rowOff>118782</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>25213</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>172570</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F68C9BD8-C175-47F6-9C7F-6C25AB6948C4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>274543</xdr:colOff>
+      <xdr:row>2378</xdr:row>
+      <xdr:rowOff>113177</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>487454</xdr:colOff>
+      <xdr:row>2393</xdr:row>
+      <xdr:rowOff>166965</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{049B4FB3-E6BF-46F9-B280-71D439D5D7AE}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
 </xdr:wsDr>
+</file>
+
+<file path=xl/pivotCache/pivotCacheDefinition1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" r:id="rId1" refreshedBy="Jayden King" refreshedDate="44024.741286574077" createdVersion="6" refreshedVersion="6" minRefreshableVersion="3" recordCount="52" xr:uid="{76CC4D9E-9CE8-4120-B3DC-137D29862E43}">
+  <cacheSource type="worksheet">
+    <worksheetSource ref="A2375:E2427" sheet="Sheet1"/>
+  </cacheSource>
+  <cacheFields count="5">
+    <cacheField name="Master" numFmtId="49">
+      <sharedItems count="4">
+        <s v="1825"/>
+        <s v="2802"/>
+        <s v="34d8"/>
+        <s v="9c8f"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Segments" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4" count="2">
+        <n v="1"/>
+        <n v="4"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Nodes" numFmtId="0">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" containsInteger="1" minValue="1" maxValue="4" count="4">
+        <n v="1"/>
+        <n v="2"/>
+        <n v="3"/>
+        <n v="4"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Algorithm" numFmtId="49">
+      <sharedItems count="6">
+        <s v="offline"/>
+        <s v="best"/>
+        <s v="best_or_local"/>
+        <s v="fastest"/>
+        <s v="least_busy"/>
+        <s v="ordered"/>
+      </sharedItems>
+    </cacheField>
+    <cacheField name="Actual time (s)" numFmtId="164">
+      <sharedItems containsSemiMixedTypes="0" containsString="0" containsNumber="1" minValue="429.10399999999998" maxValue="1486.4349999999999"/>
+    </cacheField>
+  </cacheFields>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{725AE2AE-9491-48be-B2B4-4EB974FC3084}">
+      <x14:pivotCacheDefinition/>
+    </ext>
+  </extLst>
+</pivotCacheDefinition>
+</file>
+
+<file path=xl/pivotCache/pivotCacheRecords1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotCacheRecords xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" count="52">
+  <r>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1384.346"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="450.875"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1254.444"/>
+  </r>
+  <r>
+    <x v="3"/>
+    <x v="0"/>
+    <x v="0"/>
+    <x v="0"/>
+    <n v="1139.654"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1442.175"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="545.49599999999998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1055.251"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="429.10399999999998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="813.93100000000004"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="887.86599999999999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="856.48299999999995"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="868.56"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="600.03399999999999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="676.39499999999998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="720.19799999999998"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="796.98900000000003"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="1486.4349999999999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="577.73400000000004"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="1056.105"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="535.40899999999999"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="793.71500000000003"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="814.32899999999995"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="804.08600000000001"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="952.92899999999997"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="585.48800000000006"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="677.65200000000004"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="704.04700000000003"/>
+  </r>
+  <r>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="735.30399999999997"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="715.03899999999999"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="720.32799999999997"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="537.27800000000002"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="690.62400000000002"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="562.851"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="487.24799999999999"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="545.596"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="597.19000000000005"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="572.00300000000004"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="610.29899999999998"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="595.16499999999996"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="0"/>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="803.76700000000005"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="1"/>
+    <n v="509.21699999999998"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="1"/>
+    <x v="2"/>
+    <n v="703.78499999999997"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="1"/>
+    <n v="494.59199999999998"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="2"/>
+    <n v="637.16499999999996"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="3"/>
+    <n v="646.702"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="4"/>
+    <n v="568.69299999999998"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="2"/>
+    <x v="5"/>
+    <n v="733.11099999999999"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="1"/>
+    <n v="620.43899999999996"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="2"/>
+    <n v="521.10900000000004"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="3"/>
+    <n v="601.12699999999995"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="4"/>
+    <n v="615.70699999999999"/>
+  </r>
+  <r>
+    <x v="2"/>
+    <x v="1"/>
+    <x v="3"/>
+    <x v="5"/>
+    <n v="591.49300000000005"/>
+  </r>
+</pivotCacheRecords>
+</file>
+
+<file path=xl/pivotTables/pivotTable1.xml><?xml version="1.0" encoding="utf-8"?>
+<pivotTableDefinition xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr" xr:uid="{D309A201-7A5F-4E41-99F8-04F3DDB79A30}" name="PivotTable4" cacheId="0" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="0" applyPatternFormats="0" applyAlignmentFormats="0" applyWidthHeightFormats="1" dataCaption="Values" updatedVersion="6" minRefreshableVersion="3" useAutoFormatting="1" itemPrintTitles="1" createdVersion="6" indent="0" outline="1" outlineData="1" multipleFieldFilters="0" chartFormat="1">
+  <location ref="G2375:H2390" firstHeaderRow="1" firstDataRow="1" firstDataCol="1"/>
+  <pivotFields count="5">
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item x="0"/>
+        <item x="1"/>
+        <item x="2"/>
+        <item x="3"/>
+        <item t="default" sd="0"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="3">
+        <item x="0"/>
+        <item x="1"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="5">
+        <item sd="0" x="0"/>
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item t="default"/>
+      </items>
+    </pivotField>
+    <pivotField axis="axisRow" showAll="0">
+      <items count="7">
+        <item sd="0" x="1"/>
+        <item sd="0" x="2"/>
+        <item sd="0" x="3"/>
+        <item sd="0" x="4"/>
+        <item sd="0" x="0"/>
+        <item sd="0" x="5"/>
+        <item t="default" sd="0"/>
+      </items>
+    </pivotField>
+    <pivotField dataField="1" numFmtId="164" showAll="0"/>
+  </pivotFields>
+  <rowFields count="4">
+    <field x="0"/>
+    <field x="2"/>
+    <field x="3"/>
+    <field x="1"/>
+  </rowFields>
+  <rowItems count="15">
+    <i>
+      <x/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i>
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i r="1">
+      <x v="1"/>
+    </i>
+    <i r="1">
+      <x v="2"/>
+    </i>
+    <i r="1">
+      <x v="3"/>
+    </i>
+    <i>
+      <x v="3"/>
+    </i>
+    <i r="1">
+      <x/>
+    </i>
+    <i t="grand">
+      <x/>
+    </i>
+  </rowItems>
+  <colItems count="1">
+    <i/>
+  </colItems>
+  <dataFields count="1">
+    <dataField name="Average of Actual time (s)" fld="4" subtotal="average" baseField="0" baseItem="0"/>
+  </dataFields>
+  <chartFormats count="1">
+    <chartFormat chart="0" format="2" series="1">
+      <pivotArea type="data" outline="0" fieldPosition="0">
+        <references count="1">
+          <reference field="4294967294" count="1" selected="0">
+            <x v="0"/>
+          </reference>
+        </references>
+      </pivotArea>
+    </chartFormat>
+  </chartFormats>
+  <pivotTableStyleInfo name="PivotStyleLight16" showRowHeaders="1" showColHeaders="1" showRowStripes="0" showColStripes="0" showLastColumn="1"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{962EF5D1-5CA2-4c93-8EF4-DBF5C05439D2}">
+      <x14:pivotTableDefinition xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" hideValuesRow="1"/>
+    </ext>
+    <ext xmlns:xpdl="http://schemas.microsoft.com/office/spreadsheetml/2016/pivotdefaultlayout" uri="{747A6164-185A-40DC-8AA5-F01512510D54}">
+      <xpdl:pivotTableDefinition16/>
+    </ext>
+  </extLst>
+</pivotTableDefinition>
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -3827,17 +6562,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D04285B5-A4B2-43D6-9C20-CE6D828CF8A2}">
-  <dimension ref="A1:K2372"/>
+  <dimension ref="A1:K2470"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A2282" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="K2303" sqref="K2303"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L22" sqref="L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="1" max="5" width="22.59765625" customWidth="1"/>
-    <col min="6" max="8" width="22.59765625" style="6" customWidth="1"/>
-    <col min="9" max="12" width="22.59765625" customWidth="1"/>
+    <col min="6" max="6" width="22.59765625" style="6" customWidth="1"/>
+    <col min="7" max="7" width="12.59765625" style="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="22.265625" style="6" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="19" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="22.59765625" customWidth="1"/>
     <col min="13" max="13" width="14.46484375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3847,21 +6585,21 @@
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.45">
-      <c r="C2" s="10" t="s">
+      <c r="C2" s="14" t="s">
         <v>282</v>
       </c>
-      <c r="D2" s="10"/>
-      <c r="E2" s="10"/>
-      <c r="F2" s="10" t="s">
+      <c r="D2" s="14"/>
+      <c r="E2" s="14"/>
+      <c r="F2" s="14" t="s">
         <v>29</v>
       </c>
-      <c r="G2" s="10"/>
-      <c r="H2" s="10"/>
-      <c r="I2" s="10" t="s">
+      <c r="G2" s="14"/>
+      <c r="H2" s="14"/>
+      <c r="I2" s="14" t="s">
         <v>281</v>
       </c>
-      <c r="J2" s="10"/>
-      <c r="K2" s="10"/>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A3" s="4" t="s">
@@ -4675,6 +7413,15 @@
       </c>
       <c r="D28" s="6"/>
       <c r="E28" s="6"/>
+      <c r="F28" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="G28" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="H28" s="6" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="29" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A29" s="6" t="s">
@@ -4687,7 +7434,18 @@
         <v>28.047000000000001</v>
       </c>
       <c r="D29" s="6"/>
-      <c r="E29" s="6"/>
+      <c r="E29" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="F29" s="6">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="G29" s="6">
+        <v>60.067</v>
+      </c>
+      <c r="H29" s="1">
+        <v>32.769736842105267</v>
+      </c>
     </row>
     <row r="30" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A30" s="6" t="s">
@@ -4700,7 +7458,18 @@
         <v>75.643000000000001</v>
       </c>
       <c r="D30" s="6"/>
-      <c r="E30" s="6"/>
+      <c r="E30" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="F30" s="6">
+        <v>12.548</v>
+      </c>
+      <c r="G30" s="6">
+        <v>20.884</v>
+      </c>
+      <c r="H30" s="1">
+        <v>6.4831538461538454</v>
+      </c>
     </row>
     <row r="31" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A31" s="6" t="s">
@@ -4713,7 +7482,18 @@
         <v>44.198</v>
       </c>
       <c r="D31" s="6"/>
-      <c r="E31" s="6"/>
+      <c r="E31" s="6" t="s">
+        <v>281</v>
+      </c>
+      <c r="F31" s="6">
+        <v>11.54</v>
+      </c>
+      <c r="G31" s="6">
+        <v>21.067</v>
+      </c>
+      <c r="H31" s="1">
+        <v>6.2246923076923073</v>
+      </c>
     </row>
     <row r="32" spans="1:11" x14ac:dyDescent="0.45">
       <c r="A32" s="6" t="s">
@@ -4728,7 +7508,7 @@
       <c r="D32" s="6"/>
       <c r="E32" s="6"/>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A33" s="6" t="s">
         <v>13</v>
       </c>
@@ -4740,8 +7520,17 @@
       </c>
       <c r="D33" s="6"/>
       <c r="E33" s="6"/>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="F33" s="6" t="s">
+        <v>282</v>
+      </c>
+      <c r="G33" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="H33" s="6" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A34" s="6" t="s">
         <v>14</v>
       </c>
@@ -4752,9 +7541,20 @@
         <v>30.974</v>
       </c>
       <c r="D34" s="6"/>
-      <c r="E34" s="6"/>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E34" s="6" t="s">
+        <v>385</v>
+      </c>
+      <c r="F34" s="6">
+        <v>69.989999999999995</v>
+      </c>
+      <c r="G34" s="6">
+        <v>12.548</v>
+      </c>
+      <c r="H34" s="6">
+        <v>11.54</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A35" s="6" t="s">
         <v>15</v>
       </c>
@@ -4765,9 +7565,20 @@
         <v>77.361000000000004</v>
       </c>
       <c r="D35" s="6"/>
-      <c r="E35" s="6"/>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E35" s="6" t="s">
+        <v>384</v>
+      </c>
+      <c r="F35" s="6">
+        <v>60.067</v>
+      </c>
+      <c r="G35" s="6">
+        <v>20.884</v>
+      </c>
+      <c r="H35" s="6">
+        <v>21.067</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A36" s="6" t="s">
         <v>16</v>
       </c>
@@ -4778,9 +7589,20 @@
         <v>40.832999999999998</v>
       </c>
       <c r="D36" s="6"/>
-      <c r="E36" s="6"/>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.45">
+      <c r="E36" s="6" t="s">
+        <v>383</v>
+      </c>
+      <c r="F36" s="1">
+        <v>32.769736842105303</v>
+      </c>
+      <c r="G36" s="1">
+        <v>6.4831538461538454</v>
+      </c>
+      <c r="H36" s="1">
+        <v>6.2246923076923073</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A37" s="6" t="s">
         <v>17</v>
       </c>
@@ -4793,7 +7615,7 @@
       <c r="D37" s="6"/>
       <c r="E37" s="6"/>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A38" s="6" t="s">
         <v>18</v>
       </c>
@@ -4806,7 +7628,7 @@
       <c r="D38" s="6"/>
       <c r="E38" s="6"/>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="39" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A39" s="6" t="s">
         <v>19</v>
       </c>
@@ -4819,7 +7641,7 @@
       <c r="D39" s="6"/>
       <c r="E39" s="6"/>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A40" s="6" t="s">
         <v>20</v>
       </c>
@@ -4832,7 +7654,7 @@
       <c r="D40" s="6"/>
       <c r="E40" s="6"/>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A41" s="6" t="s">
         <v>21</v>
       </c>
@@ -4845,7 +7667,7 @@
       <c r="D41" s="6"/>
       <c r="E41" s="6"/>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A42" s="6" t="s">
         <v>22</v>
       </c>
@@ -4858,7 +7680,7 @@
       <c r="D42" s="6"/>
       <c r="E42" s="6"/>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="43" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A43" s="6" t="s">
         <v>23</v>
       </c>
@@ -4871,7 +7693,7 @@
       <c r="D43" s="6"/>
       <c r="E43" s="6"/>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A44" s="6" t="s">
         <v>24</v>
       </c>
@@ -4884,7 +7706,7 @@
       <c r="D44" s="6"/>
       <c r="E44" s="6"/>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="45" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A45" s="6" t="s">
         <v>25</v>
       </c>
@@ -4897,7 +7719,7 @@
       <c r="D45" s="6"/>
       <c r="E45" s="6"/>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A46" s="6" t="s">
         <v>26</v>
       </c>
@@ -4910,7 +7732,7 @@
       <c r="D46" s="6"/>
       <c r="E46" s="6"/>
     </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="47" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A47" s="6" t="s">
         <v>27</v>
       </c>
@@ -4923,7 +7745,7 @@
       <c r="D47" s="6"/>
       <c r="E47" s="6"/>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:8" x14ac:dyDescent="0.45">
       <c r="A48" s="6" t="s">
         <v>40</v>
       </c>
@@ -44208,6 +47030,1302 @@
         <v>730.34500000000003</v>
       </c>
     </row>
+    <row r="2375" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2375" s="6" t="s">
+        <v>374</v>
+      </c>
+      <c r="B2375" s="6" t="s">
+        <v>376</v>
+      </c>
+      <c r="C2375" s="6" t="s">
+        <v>377</v>
+      </c>
+      <c r="D2375" s="6" t="s">
+        <v>378</v>
+      </c>
+      <c r="E2375" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="F2375" s="1"/>
+      <c r="G2375" s="10" t="s">
+        <v>386</v>
+      </c>
+      <c r="H2375" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="2376" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2376" s="7" t="s">
+        <v>362</v>
+      </c>
+      <c r="B2376" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2376" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2376" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="E2376" s="1">
+        <v>1384.346</v>
+      </c>
+      <c r="F2376" s="1"/>
+      <c r="G2376" s="11" t="s">
+        <v>362</v>
+      </c>
+      <c r="H2376" s="12">
+        <v>1384.346</v>
+      </c>
+    </row>
+    <row r="2377" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2377" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2377" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2377" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2377" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="E2377" s="1">
+        <v>450.875</v>
+      </c>
+      <c r="F2377" s="1"/>
+      <c r="G2377" s="13">
+        <v>1</v>
+      </c>
+      <c r="H2377" s="12">
+        <v>1384.346</v>
+      </c>
+    </row>
+    <row r="2378" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2378" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2378" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2378" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2378" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="E2378" s="1">
+        <v>1254.444</v>
+      </c>
+      <c r="F2378" s="1"/>
+      <c r="G2378" s="11" t="s">
+        <v>364</v>
+      </c>
+      <c r="H2378" s="12">
+        <v>794.66359999999997</v>
+      </c>
+    </row>
+    <row r="2379" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2379" s="7" t="s">
+        <v>366</v>
+      </c>
+      <c r="B2379" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2379" s="8">
+        <v>1</v>
+      </c>
+      <c r="D2379" s="7" t="s">
+        <v>363</v>
+      </c>
+      <c r="E2379" s="1">
+        <v>1139.654</v>
+      </c>
+      <c r="F2379" s="1"/>
+      <c r="G2379" s="13">
+        <v>1</v>
+      </c>
+      <c r="H2379" s="12">
+        <v>450.875</v>
+      </c>
+    </row>
+    <row r="2380" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2380" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2380" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2380" s="8">
+        <v>2</v>
+      </c>
+      <c r="D2380" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E2380" s="1">
+        <v>1442.175</v>
+      </c>
+      <c r="F2380" s="1"/>
+      <c r="G2380" s="13">
+        <v>2</v>
+      </c>
+      <c r="H2380" s="12">
+        <v>1012.9599999999999</v>
+      </c>
+    </row>
+    <row r="2381" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2381" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2381" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2381" s="8">
+        <v>2</v>
+      </c>
+      <c r="D2381" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2381" s="1">
+        <v>545.49599999999998</v>
+      </c>
+      <c r="F2381" s="1"/>
+      <c r="G2381" s="13">
+        <v>3</v>
+      </c>
+      <c r="H2381" s="12">
+        <v>804.62789999999995</v>
+      </c>
+    </row>
+    <row r="2382" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2382" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2382" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2382" s="8">
+        <v>3</v>
+      </c>
+      <c r="D2382" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E2382" s="1">
+        <v>1055.251</v>
+      </c>
+      <c r="F2382" s="1"/>
+      <c r="G2382" s="13">
+        <v>4</v>
+      </c>
+      <c r="H2382" s="12">
+        <v>731.75959999999998</v>
+      </c>
+    </row>
+    <row r="2383" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2383" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2383" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2383" s="8">
+        <v>3</v>
+      </c>
+      <c r="D2383" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2383" s="1">
+        <v>429.10399999999998</v>
+      </c>
+      <c r="F2383" s="1"/>
+      <c r="G2383" s="11" t="s">
+        <v>365</v>
+      </c>
+      <c r="H2383" s="12">
+        <v>637.39887999999996</v>
+      </c>
+    </row>
+    <row r="2384" spans="1:10" x14ac:dyDescent="0.45">
+      <c r="A2384" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2384" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2384" s="8">
+        <v>3</v>
+      </c>
+      <c r="D2384" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="E2384" s="1">
+        <v>813.93100000000004</v>
+      </c>
+      <c r="F2384" s="1"/>
+      <c r="G2384" s="13">
+        <v>1</v>
+      </c>
+      <c r="H2384" s="12">
+        <v>1254.444</v>
+      </c>
+    </row>
+    <row r="2385" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2385" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2385" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2385" s="8">
+        <v>3</v>
+      </c>
+      <c r="D2385" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="E2385" s="1">
+        <v>887.86599999999999</v>
+      </c>
+      <c r="F2385" s="1"/>
+      <c r="G2385" s="13">
+        <v>2</v>
+      </c>
+      <c r="H2385" s="12">
+        <v>662.09224999999992</v>
+      </c>
+    </row>
+    <row r="2386" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2386" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2386" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2386" s="8">
+        <v>3</v>
+      </c>
+      <c r="D2386" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="E2386" s="1">
+        <v>856.48299999999995</v>
+      </c>
+      <c r="F2386" s="1"/>
+      <c r="G2386" s="13">
+        <v>3</v>
+      </c>
+      <c r="H2386" s="12">
+        <v>590.38600000000008</v>
+      </c>
+    </row>
+    <row r="2387" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2387" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2387" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2387" s="8">
+        <v>4</v>
+      </c>
+      <c r="D2387" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E2387" s="1">
+        <v>868.56</v>
+      </c>
+      <c r="F2387" s="1"/>
+      <c r="G2387" s="13">
+        <v>4</v>
+      </c>
+      <c r="H2387" s="12">
+        <v>612.82990000000007</v>
+      </c>
+    </row>
+    <row r="2388" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2388" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2388" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2388" s="8">
+        <v>4</v>
+      </c>
+      <c r="D2388" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2388" s="1">
+        <v>600.03399999999999</v>
+      </c>
+      <c r="F2388" s="1"/>
+      <c r="G2388" s="11" t="s">
+        <v>366</v>
+      </c>
+      <c r="H2388" s="12">
+        <v>1139.654</v>
+      </c>
+    </row>
+    <row r="2389" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2389" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2389" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2389" s="8">
+        <v>4</v>
+      </c>
+      <c r="D2389" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="E2389" s="1">
+        <v>676.39499999999998</v>
+      </c>
+      <c r="F2389" s="1"/>
+      <c r="G2389" s="13">
+        <v>1</v>
+      </c>
+      <c r="H2389" s="12">
+        <v>1139.654</v>
+      </c>
+    </row>
+    <row r="2390" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2390" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2390" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2390" s="8">
+        <v>4</v>
+      </c>
+      <c r="D2390" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="E2390" s="1">
+        <v>720.19799999999998</v>
+      </c>
+      <c r="F2390" s="1"/>
+      <c r="G2390" s="11" t="s">
+        <v>387</v>
+      </c>
+      <c r="H2390" s="12">
+        <v>737.03003846153854</v>
+      </c>
+    </row>
+    <row r="2391" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2391" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2391" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2391" s="8">
+        <v>4</v>
+      </c>
+      <c r="D2391" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="E2391" s="1">
+        <v>796.98900000000003</v>
+      </c>
+      <c r="F2391" s="1"/>
+      <c r="G2391"/>
+      <c r="H2391"/>
+    </row>
+    <row r="2392" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2392" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2392" s="8">
+        <v>4</v>
+      </c>
+      <c r="C2392" s="8">
+        <v>2</v>
+      </c>
+      <c r="D2392" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E2392" s="1">
+        <v>1486.4349999999999</v>
+      </c>
+      <c r="F2392" s="1"/>
+      <c r="G2392"/>
+      <c r="H2392"/>
+    </row>
+    <row r="2393" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2393" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2393" s="8">
+        <v>4</v>
+      </c>
+      <c r="C2393" s="8">
+        <v>2</v>
+      </c>
+      <c r="D2393" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2393" s="1">
+        <v>577.73400000000004</v>
+      </c>
+      <c r="F2393" s="1"/>
+      <c r="G2393"/>
+      <c r="H2393"/>
+    </row>
+    <row r="2394" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2394" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2394" s="8">
+        <v>4</v>
+      </c>
+      <c r="C2394" s="8">
+        <v>3</v>
+      </c>
+      <c r="D2394" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E2394" s="1">
+        <v>1056.105</v>
+      </c>
+      <c r="F2394" s="1"/>
+      <c r="G2394"/>
+      <c r="H2394"/>
+    </row>
+    <row r="2395" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2395" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2395" s="8">
+        <v>4</v>
+      </c>
+      <c r="C2395" s="8">
+        <v>3</v>
+      </c>
+      <c r="D2395" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2395" s="1">
+        <v>535.40899999999999</v>
+      </c>
+      <c r="F2395" s="1"/>
+      <c r="G2395"/>
+      <c r="H2395"/>
+    </row>
+    <row r="2396" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2396" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2396" s="8">
+        <v>4</v>
+      </c>
+      <c r="C2396" s="8">
+        <v>3</v>
+      </c>
+      <c r="D2396" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="E2396" s="1">
+        <v>793.71500000000003</v>
+      </c>
+      <c r="F2396" s="1"/>
+      <c r="G2396"/>
+      <c r="H2396"/>
+    </row>
+    <row r="2397" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2397" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2397" s="8">
+        <v>4</v>
+      </c>
+      <c r="C2397" s="8">
+        <v>3</v>
+      </c>
+      <c r="D2397" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="E2397" s="1">
+        <v>814.32899999999995</v>
+      </c>
+      <c r="F2397" s="1"/>
+      <c r="G2397"/>
+      <c r="H2397"/>
+    </row>
+    <row r="2398" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2398" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2398" s="8">
+        <v>4</v>
+      </c>
+      <c r="C2398" s="8">
+        <v>3</v>
+      </c>
+      <c r="D2398" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="E2398" s="1">
+        <v>804.08600000000001</v>
+      </c>
+      <c r="F2398" s="1"/>
+      <c r="G2398"/>
+      <c r="H2398"/>
+    </row>
+    <row r="2399" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2399" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2399" s="8">
+        <v>4</v>
+      </c>
+      <c r="C2399" s="8">
+        <v>4</v>
+      </c>
+      <c r="D2399" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E2399" s="1">
+        <v>952.92899999999997</v>
+      </c>
+      <c r="F2399" s="1"/>
+      <c r="G2399"/>
+      <c r="H2399"/>
+    </row>
+    <row r="2400" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2400" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2400" s="8">
+        <v>4</v>
+      </c>
+      <c r="C2400" s="8">
+        <v>4</v>
+      </c>
+      <c r="D2400" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2400" s="1">
+        <v>585.48800000000006</v>
+      </c>
+      <c r="F2400" s="1"/>
+      <c r="G2400"/>
+      <c r="H2400"/>
+    </row>
+    <row r="2401" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2401" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2401" s="8">
+        <v>4</v>
+      </c>
+      <c r="C2401" s="8">
+        <v>4</v>
+      </c>
+      <c r="D2401" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="E2401" s="1">
+        <v>677.65200000000004</v>
+      </c>
+      <c r="F2401" s="1"/>
+      <c r="G2401"/>
+      <c r="H2401"/>
+    </row>
+    <row r="2402" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2402" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2402" s="8">
+        <v>4</v>
+      </c>
+      <c r="C2402" s="8">
+        <v>4</v>
+      </c>
+      <c r="D2402" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="E2402" s="1">
+        <v>704.04700000000003</v>
+      </c>
+      <c r="F2402" s="1"/>
+      <c r="G2402"/>
+      <c r="H2402"/>
+    </row>
+    <row r="2403" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2403" s="7" t="s">
+        <v>364</v>
+      </c>
+      <c r="B2403" s="8">
+        <v>4</v>
+      </c>
+      <c r="C2403" s="8">
+        <v>4</v>
+      </c>
+      <c r="D2403" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="E2403" s="1">
+        <v>735.30399999999997</v>
+      </c>
+      <c r="F2403" s="1"/>
+      <c r="G2403"/>
+      <c r="H2403"/>
+    </row>
+    <row r="2404" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2404" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2404" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2404" s="8">
+        <v>2</v>
+      </c>
+      <c r="D2404" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E2404" s="1">
+        <v>715.03899999999999</v>
+      </c>
+      <c r="F2404" s="1"/>
+      <c r="G2404"/>
+      <c r="H2404"/>
+    </row>
+    <row r="2405" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2405" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2405" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2405" s="8">
+        <v>2</v>
+      </c>
+      <c r="D2405" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2405" s="1">
+        <v>720.32799999999997</v>
+      </c>
+      <c r="F2405" s="1"/>
+      <c r="G2405"/>
+      <c r="H2405"/>
+    </row>
+    <row r="2406" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2406" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2406" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2406" s="8">
+        <v>3</v>
+      </c>
+      <c r="D2406" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E2406" s="1">
+        <v>537.27800000000002</v>
+      </c>
+      <c r="F2406" s="1"/>
+      <c r="G2406"/>
+      <c r="H2406"/>
+    </row>
+    <row r="2407" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2407" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2407" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2407" s="8">
+        <v>3</v>
+      </c>
+      <c r="D2407" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2407" s="1">
+        <v>690.62400000000002</v>
+      </c>
+      <c r="F2407" s="1"/>
+      <c r="G2407"/>
+      <c r="H2407"/>
+    </row>
+    <row r="2408" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2408" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2408" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2408" s="8">
+        <v>3</v>
+      </c>
+      <c r="D2408" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="E2408" s="1">
+        <v>562.851</v>
+      </c>
+      <c r="F2408" s="1"/>
+      <c r="G2408"/>
+      <c r="H2408"/>
+    </row>
+    <row r="2409" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2409" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2409" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2409" s="8">
+        <v>3</v>
+      </c>
+      <c r="D2409" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="E2409" s="1">
+        <v>487.24799999999999</v>
+      </c>
+      <c r="F2409" s="1"/>
+      <c r="G2409"/>
+      <c r="H2409"/>
+    </row>
+    <row r="2410" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2410" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2410" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2410" s="8">
+        <v>3</v>
+      </c>
+      <c r="D2410" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="E2410" s="1">
+        <v>545.596</v>
+      </c>
+      <c r="F2410" s="1"/>
+      <c r="G2410"/>
+      <c r="H2410"/>
+    </row>
+    <row r="2411" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2411" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2411" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2411" s="8">
+        <v>4</v>
+      </c>
+      <c r="D2411" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E2411" s="1">
+        <v>597.19000000000005</v>
+      </c>
+      <c r="F2411" s="1"/>
+      <c r="G2411"/>
+      <c r="H2411"/>
+    </row>
+    <row r="2412" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2412" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2412" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2412" s="8">
+        <v>4</v>
+      </c>
+      <c r="D2412" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2412" s="1">
+        <v>572.00300000000004</v>
+      </c>
+      <c r="F2412" s="1"/>
+      <c r="G2412"/>
+      <c r="H2412"/>
+    </row>
+    <row r="2413" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2413" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2413" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2413" s="8">
+        <v>4</v>
+      </c>
+      <c r="D2413" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="E2413" s="1">
+        <v>610.29899999999998</v>
+      </c>
+      <c r="F2413" s="1"/>
+      <c r="G2413"/>
+      <c r="H2413"/>
+    </row>
+    <row r="2414" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2414" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2414" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2414" s="8">
+        <v>4</v>
+      </c>
+      <c r="D2414" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="E2414" s="1">
+        <v>595.16499999999996</v>
+      </c>
+      <c r="F2414" s="1"/>
+      <c r="G2414"/>
+      <c r="H2414"/>
+    </row>
+    <row r="2415" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2415" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2415" s="8">
+        <v>1</v>
+      </c>
+      <c r="C2415" s="8">
+        <v>4</v>
+      </c>
+      <c r="D2415" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="E2415" s="1">
+        <v>803.76700000000005</v>
+      </c>
+      <c r="F2415" s="1"/>
+      <c r="G2415"/>
+      <c r="H2415"/>
+    </row>
+    <row r="2416" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2416" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2416" s="8">
+        <v>4</v>
+      </c>
+      <c r="C2416" s="8">
+        <v>2</v>
+      </c>
+      <c r="D2416" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E2416" s="1">
+        <v>509.21699999999998</v>
+      </c>
+      <c r="F2416" s="1"/>
+      <c r="G2416"/>
+      <c r="H2416"/>
+    </row>
+    <row r="2417" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2417" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2417" s="8">
+        <v>4</v>
+      </c>
+      <c r="C2417" s="8">
+        <v>2</v>
+      </c>
+      <c r="D2417" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2417" s="1">
+        <v>703.78499999999997</v>
+      </c>
+      <c r="F2417" s="1"/>
+      <c r="G2417"/>
+      <c r="H2417"/>
+    </row>
+    <row r="2418" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2418" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2418" s="8">
+        <v>4</v>
+      </c>
+      <c r="C2418" s="8">
+        <v>3</v>
+      </c>
+      <c r="D2418" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E2418" s="1">
+        <v>494.59199999999998</v>
+      </c>
+      <c r="F2418" s="1"/>
+      <c r="G2418"/>
+      <c r="H2418"/>
+    </row>
+    <row r="2419" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2419" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2419" s="8">
+        <v>4</v>
+      </c>
+      <c r="C2419" s="8">
+        <v>3</v>
+      </c>
+      <c r="D2419" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2419" s="1">
+        <v>637.16499999999996</v>
+      </c>
+      <c r="F2419" s="1"/>
+      <c r="G2419"/>
+      <c r="H2419"/>
+    </row>
+    <row r="2420" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2420" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2420" s="8">
+        <v>4</v>
+      </c>
+      <c r="C2420" s="8">
+        <v>3</v>
+      </c>
+      <c r="D2420" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="E2420" s="1">
+        <v>646.702</v>
+      </c>
+      <c r="F2420" s="1"/>
+      <c r="G2420"/>
+      <c r="H2420"/>
+    </row>
+    <row r="2421" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2421" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2421" s="8">
+        <v>4</v>
+      </c>
+      <c r="C2421" s="8">
+        <v>3</v>
+      </c>
+      <c r="D2421" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="E2421" s="1">
+        <v>568.69299999999998</v>
+      </c>
+      <c r="F2421" s="1"/>
+      <c r="G2421"/>
+      <c r="H2421"/>
+    </row>
+    <row r="2422" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2422" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2422" s="8">
+        <v>4</v>
+      </c>
+      <c r="C2422" s="8">
+        <v>3</v>
+      </c>
+      <c r="D2422" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="E2422" s="1">
+        <v>733.11099999999999</v>
+      </c>
+      <c r="F2422" s="1"/>
+      <c r="G2422"/>
+      <c r="H2422"/>
+    </row>
+    <row r="2423" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2423" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2423" s="6">
+        <v>4</v>
+      </c>
+      <c r="C2423" s="6">
+        <v>4</v>
+      </c>
+      <c r="D2423" s="7" t="s">
+        <v>368</v>
+      </c>
+      <c r="E2423" s="1">
+        <v>620.43899999999996</v>
+      </c>
+      <c r="F2423" s="1"/>
+      <c r="G2423"/>
+      <c r="H2423"/>
+    </row>
+    <row r="2424" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2424" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2424" s="6">
+        <v>4</v>
+      </c>
+      <c r="C2424" s="6">
+        <v>4</v>
+      </c>
+      <c r="D2424" s="7" t="s">
+        <v>369</v>
+      </c>
+      <c r="E2424" s="1">
+        <v>521.10900000000004</v>
+      </c>
+      <c r="F2424" s="1"/>
+      <c r="G2424"/>
+      <c r="H2424"/>
+    </row>
+    <row r="2425" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2425" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2425" s="6">
+        <v>4</v>
+      </c>
+      <c r="C2425" s="6">
+        <v>4</v>
+      </c>
+      <c r="D2425" s="7" t="s">
+        <v>370</v>
+      </c>
+      <c r="E2425" s="1">
+        <v>601.12699999999995</v>
+      </c>
+      <c r="F2425" s="1"/>
+      <c r="G2425"/>
+      <c r="H2425"/>
+    </row>
+    <row r="2426" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2426" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2426" s="6">
+        <v>4</v>
+      </c>
+      <c r="C2426" s="6">
+        <v>4</v>
+      </c>
+      <c r="D2426" s="7" t="s">
+        <v>371</v>
+      </c>
+      <c r="E2426" s="1">
+        <v>615.70699999999999</v>
+      </c>
+      <c r="F2426" s="1"/>
+      <c r="G2426"/>
+      <c r="H2426"/>
+    </row>
+    <row r="2427" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="A2427" s="7" t="s">
+        <v>365</v>
+      </c>
+      <c r="B2427" s="6">
+        <v>4</v>
+      </c>
+      <c r="C2427" s="6">
+        <v>4</v>
+      </c>
+      <c r="D2427" s="7" t="s">
+        <v>372</v>
+      </c>
+      <c r="E2427" s="1">
+        <v>591.49300000000005</v>
+      </c>
+      <c r="F2427" s="1"/>
+      <c r="G2427"/>
+      <c r="H2427"/>
+    </row>
+    <row r="2428" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G2428"/>
+      <c r="H2428"/>
+    </row>
+    <row r="2429" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G2429"/>
+      <c r="H2429"/>
+    </row>
+    <row r="2430" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G2430"/>
+      <c r="H2430"/>
+    </row>
+    <row r="2431" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G2431"/>
+      <c r="H2431"/>
+    </row>
+    <row r="2432" spans="1:8" x14ac:dyDescent="0.45">
+      <c r="G2432"/>
+      <c r="H2432"/>
+    </row>
+    <row r="2433" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G2433"/>
+      <c r="H2433"/>
+    </row>
+    <row r="2434" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G2434"/>
+      <c r="H2434"/>
+    </row>
+    <row r="2435" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G2435"/>
+      <c r="H2435"/>
+    </row>
+    <row r="2436" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G2436"/>
+      <c r="H2436"/>
+    </row>
+    <row r="2437" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G2437"/>
+      <c r="H2437"/>
+    </row>
+    <row r="2438" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G2438"/>
+      <c r="H2438"/>
+    </row>
+    <row r="2439" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G2439"/>
+      <c r="H2439"/>
+    </row>
+    <row r="2440" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G2440"/>
+      <c r="H2440"/>
+    </row>
+    <row r="2441" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G2441"/>
+      <c r="H2441"/>
+    </row>
+    <row r="2442" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G2442"/>
+      <c r="H2442"/>
+    </row>
+    <row r="2443" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G2443"/>
+      <c r="H2443"/>
+    </row>
+    <row r="2444" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G2444"/>
+      <c r="H2444"/>
+    </row>
+    <row r="2445" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G2445"/>
+      <c r="H2445"/>
+    </row>
+    <row r="2446" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G2446"/>
+      <c r="H2446"/>
+    </row>
+    <row r="2447" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G2447"/>
+      <c r="H2447"/>
+    </row>
+    <row r="2448" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G2448"/>
+      <c r="H2448"/>
+    </row>
+    <row r="2449" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G2449"/>
+      <c r="H2449"/>
+    </row>
+    <row r="2450" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G2450"/>
+      <c r="H2450"/>
+    </row>
+    <row r="2451" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G2451"/>
+      <c r="H2451"/>
+    </row>
+    <row r="2452" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G2452"/>
+      <c r="H2452"/>
+    </row>
+    <row r="2453" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G2453"/>
+      <c r="H2453"/>
+    </row>
+    <row r="2454" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G2454"/>
+      <c r="H2454"/>
+    </row>
+    <row r="2455" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G2455"/>
+      <c r="H2455"/>
+    </row>
+    <row r="2456" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G2456"/>
+      <c r="H2456"/>
+    </row>
+    <row r="2457" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G2457"/>
+      <c r="H2457"/>
+    </row>
+    <row r="2458" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G2458"/>
+      <c r="H2458"/>
+    </row>
+    <row r="2459" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G2459"/>
+      <c r="H2459"/>
+    </row>
+    <row r="2460" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G2460"/>
+      <c r="H2460"/>
+    </row>
+    <row r="2461" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G2461"/>
+      <c r="H2461"/>
+    </row>
+    <row r="2462" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G2462"/>
+      <c r="H2462"/>
+    </row>
+    <row r="2463" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G2463"/>
+      <c r="H2463"/>
+    </row>
+    <row r="2464" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G2464"/>
+      <c r="H2464"/>
+    </row>
+    <row r="2465" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G2465"/>
+      <c r="H2465"/>
+    </row>
+    <row r="2466" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G2466"/>
+      <c r="H2466"/>
+    </row>
+    <row r="2467" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G2467"/>
+      <c r="H2467"/>
+    </row>
+    <row r="2468" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G2468"/>
+      <c r="H2468"/>
+    </row>
+    <row r="2469" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G2469"/>
+      <c r="H2469"/>
+    </row>
+    <row r="2470" spans="7:8" x14ac:dyDescent="0.45">
+      <c r="G2470"/>
+      <c r="H2470"/>
+    </row>
   </sheetData>
   <mergeCells count="3">
     <mergeCell ref="C2:E2"/>
@@ -44216,10 +48334,10 @@
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
-  <drawing r:id="rId2"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId2"/>
+  <drawing r:id="rId3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>